--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_4_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_4_25.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1443920.31224141</v>
+        <v>1476498.526756609</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>460545.8926584665</v>
+        <v>460545.8926584668</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8768687.110075578</v>
+        <v>8768687.110075582</v>
       </c>
     </row>
     <row r="9">
@@ -665,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F2" t="n">
         <v>241.0142888776591</v>
@@ -716,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>40.47627913313517</v>
-      </c>
-      <c r="W2" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,13 +737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -750,16 +752,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -789,10 +791,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>123.6003327477366</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -804,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>64.56505458062006</v>
       </c>
     </row>
     <row r="4">
@@ -835,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>39.82778746869526</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,19 +907,19 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="G5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G5" t="n">
-        <v>40.47627913313511</v>
-      </c>
       <c r="H5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -941,7 +943,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -950,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -987,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>117.539895612937</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -1041,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>117.539895612937</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1075,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1093,10 +1095,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1114,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1142,16 +1144,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>200.160833108852</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1181,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1199,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>190.3453970742849</v>
       </c>
     </row>
     <row r="9">
@@ -1209,25 +1211,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>5.642555560200186</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>36.43923176655766</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1306,49 +1308,49 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1370,22 +1372,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>97.03190696309366</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1421,22 +1423,22 @@
         <v>181.3631617334038</v>
       </c>
       <c r="T11" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>97.25144273425413</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1494,13 +1496,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
         <v>53.92880121529013</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>225.8986597023843</v>
@@ -1607,19 +1609,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>117.889549819912</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>379.8759895224488</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1652,25 +1654,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>73.62980964006114</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1692,7 +1694,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>27.36667690766462</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -1731,19 +1733,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>59.83930139749143</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>197.5472709665096</v>
+        <v>53.92880121529013</v>
       </c>
       <c r="U15" t="n">
         <v>225.8986597023843</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -1774,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>36.48436605884923</v>
+        <v>91.35315769505117</v>
       </c>
       <c r="G16" t="n">
         <v>167.4465608509556</v>
@@ -1786,7 +1788,7 @@
         <v>139.0783256288916</v>
       </c>
       <c r="J16" t="n">
-        <v>54.86879163620182</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1841,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>243.224929626414</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>62.90796662656637</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1923,25 +1925,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>143.3680272159724</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>105.9637990594094</v>
       </c>
       <c r="I18" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>16.91387525328438</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S18" t="n">
         <v>159.6212195484502</v>
@@ -2002,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>88.59832967195071</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2053,13 +2055,13 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>115.1165353722833</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2084,19 +2086,19 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>327.0451232326991</v>
+        <v>125.1946205731314</v>
       </c>
       <c r="I20" t="n">
         <v>163.6851955497072</v>
@@ -2135,19 +2137,19 @@
         <v>217.7829317747374</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>13.39716969355935</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2157,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>68.04005197492994</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -2178,7 +2180,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I21" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,13 +2210,13 @@
         <v>59.83930139749142</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T21" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>22.44088855367314</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2245,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>51.1165713336397</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2281,13 +2283,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R22" t="n">
         <v>152.8143555761653</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>10.54215419659351</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2315,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>204.2558553704714</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2372,19 +2374,19 @@
         <v>217.7829317747374</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>1.452325108198911</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2415,7 +2417,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I24" t="n">
-        <v>67.03858805571426</v>
+        <v>61.12808787351286</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2451,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>219.9881595201828</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2524,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>21.82566718494979</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2536,13 +2538,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>129.6635172592366</v>
       </c>
     </row>
     <row r="26">
@@ -2558,16 +2560,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>89.82783622839034</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H26" t="n">
         <v>327.0451232326991</v>
@@ -2606,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>63.25920448657997</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2618,10 +2620,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2646,10 +2648,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2688,13 +2690,13 @@
         <v>197.5472709665096</v>
       </c>
       <c r="U27" t="n">
-        <v>172.5161931289813</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>188.4551676688977</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -2713,16 +2715,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>123.320794865197</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>92.96858446131027</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2773,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2792,25 +2794,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>311.6882527856577</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2837,28 +2839,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>87.0269793336204</v>
       </c>
     </row>
     <row r="30">
@@ -2877,19 +2879,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>104.262613881998</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,16 +2918,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T30" t="n">
         <v>197.5472709665096</v>
       </c>
       <c r="U30" t="n">
-        <v>82.28018995116467</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2962,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>15.9026150950022</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3007,13 +3009,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>16.60419956430074</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3035,19 +3037,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>0.9588593664683162</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3086,13 +3088,13 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>10.14488884398011</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3120,13 +3122,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,16 +3155,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>6.456834824088546</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>159.6212195484502</v>
       </c>
       <c r="T33" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.8986597023843</v>
+        <v>120.206241369224</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3187,25 +3189,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>92.96858446131027</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>30.53482036979253</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>39.21557620022622</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3272,10 +3274,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3311,28 +3313,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>66.97649427705925</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3354,13 +3356,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>24.64815776426665</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I36" t="n">
         <v>67.03858805571426</v>
@@ -3396,13 +3398,13 @@
         <v>159.6212195484502</v>
       </c>
       <c r="T36" t="n">
-        <v>197.5472709665096</v>
+        <v>67.26886741877343</v>
       </c>
       <c r="U36" t="n">
         <v>225.8986597023843</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -3421,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>120.1263698699159</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3466,25 +3468,25 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>74.54211823523698</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3506,19 +3508,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>121.958077470405</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3548,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3560,16 +3562,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>306.0329870844812</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3588,19 +3590,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>143.3680272159724</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>105.9637990594094</v>
       </c>
       <c r="I39" t="n">
-        <v>67.03858805571424</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,16 +3629,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S39" t="n">
         <v>159.6212195484502</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U39" t="n">
-        <v>120.206241369224</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3670,16 +3672,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>91.35315769505162</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3703,16 +3705,16 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>40.5744171370463</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>147.3472002825671</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3743,19 +3745,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>97.58463995491894</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3785,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>73.62980964006111</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3794,10 +3796,10 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>126.9727812916326</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3806,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3831,13 +3833,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>106.1757315419835</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H42" t="n">
         <v>105.9637990594094</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3882,10 +3884,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>108.2159916811118</v>
       </c>
     </row>
     <row r="43">
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3907,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3946,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>93.98149908494817</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3964,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>59.57056692594167</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3980,19 +3982,19 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>40.356181690837</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>414.089049841944</v>
       </c>
       <c r="H44" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>139.4042112361043</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4074,7 +4076,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4104,16 +4106,16 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>149.3187780068791</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T45" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>127.1081688162649</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
@@ -4147,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>115.1165353722836</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>214.5288682289405</v>
+        <v>162.1988427502686</v>
       </c>
       <c r="T46" t="n">
         <v>225.6194376234954</v>
@@ -4304,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>518.2486856454962</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="C2" t="n">
-        <v>518.2486856454962</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="D2" t="n">
-        <v>518.2486856454962</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="E2" t="n">
         <v>518.2486856454962</v>
@@ -4364,16 +4366,16 @@
         <v>802.5825927271064</v>
       </c>
       <c r="V2" t="n">
+        <v>802.5825927271064</v>
+      </c>
+      <c r="W2" t="n">
+        <v>802.5825927271064</v>
+      </c>
+      <c r="X2" t="n">
+        <v>802.5825927271064</v>
+      </c>
+      <c r="Y2" t="n">
         <v>761.6974622895962</v>
-      </c>
-      <c r="W2" t="n">
-        <v>518.2486856454962</v>
-      </c>
-      <c r="X2" t="n">
-        <v>518.2486856454962</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>362.4348659156472</v>
+        <v>456.0377176450116</v>
       </c>
       <c r="C3" t="n">
-        <v>362.4348659156472</v>
+        <v>281.5846883638847</v>
       </c>
       <c r="D3" t="n">
-        <v>362.4348659156472</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="E3" t="n">
-        <v>362.4348659156472</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="F3" t="n">
-        <v>362.4348659156472</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>178.8501590306595</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>417.4543050195419</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N3" t="n">
-        <v>656.0584510084244</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O3" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
         <v>894.6625969973069</v>
@@ -4437,22 +4439,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>487.2836868729568</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U3" t="n">
-        <v>362.4348659156472</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V3" t="n">
-        <v>362.4348659156472</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W3" t="n">
-        <v>362.4348659156472</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X3" t="n">
-        <v>362.4348659156472</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y3" t="n">
-        <v>362.4348659156472</v>
+        <v>624.2530546650796</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>113.583345248266</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C4" t="n">
-        <v>113.583345248266</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D4" t="n">
-        <v>113.583345248266</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E4" t="n">
-        <v>113.583345248266</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F4" t="n">
-        <v>113.583345248266</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G4" t="n">
-        <v>113.583345248266</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H4" t="n">
-        <v>113.583345248266</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I4" t="n">
-        <v>113.583345248266</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4531,7 +4533,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>113.583345248266</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>559.1338160830064</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C5" t="n">
-        <v>559.1338160830064</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D5" t="n">
-        <v>559.1338160830064</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E5" t="n">
-        <v>559.1338160830064</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F5" t="n">
-        <v>315.6850394389064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G5" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4589,28 +4591,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U5" t="n">
-        <v>559.1338160830064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V5" t="n">
-        <v>559.1338160830064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W5" t="n">
-        <v>559.1338160830064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X5" t="n">
-        <v>559.1338160830064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y5" t="n">
-        <v>559.1338160830064</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>133.4044113554191</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="C6" t="n">
-        <v>133.4044113554191</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="D6" t="n">
-        <v>133.4044113554191</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="E6" t="n">
-        <v>133.4044113554191</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="F6" t="n">
-        <v>133.4044113554191</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="G6" t="n">
         <v>133.4044113554191</v>
@@ -4656,10 +4658,10 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>781.4136778972854</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P6" t="n">
         <v>964.0571555106362</v>
@@ -4689,7 +4691,7 @@
         <v>252.1315786412141</v>
       </c>
       <c r="Y6" t="n">
-        <v>133.4044113554191</v>
+        <v>252.1315786412141</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="J7" t="n">
         <v>19.28114311021272</v>
@@ -4741,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>499.3853800778592</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="C8" t="n">
-        <v>499.3853800778592</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="D8" t="n">
-        <v>499.3853800778592</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="E8" t="n">
-        <v>255.9366034337592</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F8" t="n">
-        <v>248.9911026845557</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G8" t="n">
-        <v>233.5337920632072</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>233.5337920632072</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
         <v>31.35113235729608</v>
@@ -4829,25 +4831,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>499.3853800778592</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V8" t="n">
-        <v>499.3853800778592</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W8" t="n">
-        <v>499.3853800778592</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X8" t="n">
-        <v>499.3853800778592</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y8" t="n">
-        <v>499.3853800778592</v>
+        <v>761.6974622895962</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>343.4227147053767</v>
+        <v>447.2758270930352</v>
       </c>
       <c r="C9" t="n">
-        <v>168.9696854242497</v>
+        <v>447.2758270930352</v>
       </c>
       <c r="D9" t="n">
-        <v>20.03527576299844</v>
+        <v>298.3414174317839</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299844</v>
+        <v>139.1039624263284</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H9" t="n">
         <v>20.03527576299844</v>
@@ -4884,49 +4886,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M9" t="n">
-        <v>487.8483949674443</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N9" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>927.2498506959315</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>927.2498506959315</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>927.2498506959315</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U9" t="n">
-        <v>927.2498506959315</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V9" t="n">
-        <v>927.2498506959315</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W9" t="n">
-        <v>927.2498506959315</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X9" t="n">
-        <v>719.3983504903987</v>
+        <v>655.0361258579891</v>
       </c>
       <c r="Y9" t="n">
-        <v>511.6380517254448</v>
+        <v>447.2758270930352</v>
       </c>
     </row>
     <row r="10">
@@ -4936,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
         <v>19.28114311021272</v>
@@ -4996,16 +4998,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>457.8809012312519</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="C11" t="n">
-        <v>457.8809012312519</v>
+        <v>1718.21864718881</v>
       </c>
       <c r="D11" t="n">
-        <v>457.8809012312519</v>
+        <v>1359.952948582059</v>
       </c>
       <c r="E11" t="n">
-        <v>457.8809012312519</v>
+        <v>974.1646959838151</v>
       </c>
       <c r="F11" t="n">
-        <v>46.89499644164432</v>
+        <v>563.1787911942076</v>
       </c>
       <c r="G11" t="n">
-        <v>46.89499644164432</v>
+        <v>144.9070236770925</v>
       </c>
       <c r="H11" t="n">
         <v>46.89499644164432</v>
@@ -5039,16 +5041,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J11" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K11" t="n">
         <v>392.9020949275675</v>
       </c>
       <c r="L11" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244549</v>
       </c>
       <c r="M11" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N11" t="n">
         <v>1610.799342072557</v>
@@ -5069,22 +5071,22 @@
         <v>2087.181164129222</v>
       </c>
       <c r="T11" t="n">
-        <v>1867.1984047608</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="U11" t="n">
-        <v>1613.411982645667</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="V11" t="n">
-        <v>1282.349095302096</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="W11" t="n">
-        <v>929.5804400319823</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="X11" t="n">
-        <v>556.1146817709025</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="Y11" t="n">
-        <v>457.8809012312519</v>
+        <v>2087.181164129222</v>
       </c>
     </row>
     <row r="12">
@@ -5142,10 +5144,10 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R12" t="n">
-        <v>2290.276285501115</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S12" t="n">
-        <v>2290.276285501115</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T12" t="n">
         <v>2290.276285501115</v>
@@ -5252,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>165.9753497950908</v>
+        <v>1954.610490106405</v>
       </c>
       <c r="C14" t="n">
-        <v>46.89499644164432</v>
+        <v>1585.647973165993</v>
       </c>
       <c r="D14" t="n">
-        <v>46.89499644164432</v>
+        <v>1227.382274559242</v>
       </c>
       <c r="E14" t="n">
-        <v>46.89499644164432</v>
+        <v>841.5940219609981</v>
       </c>
       <c r="F14" t="n">
-        <v>46.89499644164432</v>
+        <v>430.6081171713906</v>
       </c>
       <c r="G14" t="n">
         <v>46.89499644164432</v>
@@ -5276,16 +5278,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J14" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K14" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L14" t="n">
-        <v>762.5916738244553</v>
+        <v>762.5916738244549</v>
       </c>
       <c r="M14" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N14" t="n">
         <v>1610.799342072557</v>
@@ -5300,28 +5302,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R14" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S14" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T14" t="n">
-        <v>1867.1984047608</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U14" t="n">
-        <v>1613.411982645667</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V14" t="n">
-        <v>1282.349095302096</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W14" t="n">
-        <v>929.5804400319823</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="X14" t="n">
-        <v>556.1146817709025</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Y14" t="n">
-        <v>165.9753497950908</v>
+        <v>1954.610490106405</v>
       </c>
     </row>
     <row r="15">
@@ -5331,13 +5333,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>857.284873186858</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C15" t="n">
-        <v>682.831843905731</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D15" t="n">
-        <v>533.8974342444798</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E15" t="n">
         <v>506.2543262569397</v>
@@ -5355,16 +5357,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J15" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K15" t="n">
-        <v>121.6684232076323</v>
+        <v>121.6684232076319</v>
       </c>
       <c r="L15" t="n">
-        <v>491.2196383161161</v>
+        <v>491.2196383161158</v>
       </c>
       <c r="M15" t="n">
-        <v>974.4476973832905</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N15" t="n">
         <v>1486.172378671464</v>
@@ -5379,28 +5381,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R15" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S15" t="n">
-        <v>2123.072528197426</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T15" t="n">
-        <v>1923.529830251457</v>
+        <v>2290.276285501115</v>
       </c>
       <c r="U15" t="n">
-        <v>1695.349365905614</v>
+        <v>2062.095821155272</v>
       </c>
       <c r="V15" t="n">
-        <v>1695.349365905614</v>
+        <v>1826.94371292353</v>
       </c>
       <c r="W15" t="n">
-        <v>1441.112009177413</v>
+        <v>1572.706356195328</v>
       </c>
       <c r="X15" t="n">
-        <v>1233.26050897188</v>
+        <v>1364.854855989795</v>
       </c>
       <c r="Y15" t="n">
-        <v>1025.500210206926</v>
+        <v>1157.094557224842</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>607.7685734363101</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="C16" t="n">
-        <v>607.7685734363101</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="D16" t="n">
-        <v>607.7685734363101</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="E16" t="n">
-        <v>607.7685734363101</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="F16" t="n">
-        <v>570.9156784273715</v>
+        <v>515.4926565726222</v>
       </c>
       <c r="G16" t="n">
-        <v>401.7777381738809</v>
+        <v>346.3547163191317</v>
       </c>
       <c r="H16" t="n">
-        <v>242.8011754972942</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="I16" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J16" t="n">
         <v>46.89499644164432</v>
@@ -5440,46 +5442,46 @@
         <v>87.46721626702976</v>
       </c>
       <c r="L16" t="n">
-        <v>194.9121237200977</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M16" t="n">
-        <v>318.5868368362074</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N16" t="n">
-        <v>444.7554581228447</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O16" t="n">
-        <v>545.2763053496714</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P16" t="n">
-        <v>607.7685734363101</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q16" t="n">
-        <v>607.7685734363101</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R16" t="n">
-        <v>607.7685734363101</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S16" t="n">
-        <v>607.7685734363101</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T16" t="n">
-        <v>607.7685734363101</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U16" t="n">
-        <v>607.7685734363101</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V16" t="n">
-        <v>607.7685734363101</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W16" t="n">
-        <v>607.7685734363101</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="X16" t="n">
-        <v>607.7685734363101</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Y16" t="n">
-        <v>607.7685734363101</v>
+        <v>607.7685734363102</v>
       </c>
     </row>
     <row r="17">
@@ -5489,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>46.89499644164432</v>
+        <v>2099.068074984828</v>
       </c>
       <c r="C17" t="n">
-        <v>46.89499644164432</v>
+        <v>1730.105558044417</v>
       </c>
       <c r="D17" t="n">
-        <v>46.89499644164432</v>
+        <v>1371.839859437666</v>
       </c>
       <c r="E17" t="n">
-        <v>46.89499644164432</v>
+        <v>1371.839859437666</v>
       </c>
       <c r="F17" t="n">
-        <v>46.89499644164432</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="G17" t="n">
-        <v>46.89499644164432</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H17" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I17" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J17" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K17" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L17" t="n">
-        <v>762.5916738244549</v>
+        <v>762.5916738244551</v>
       </c>
       <c r="M17" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N17" t="n">
         <v>1610.799342072557</v>
@@ -5537,28 +5539,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R17" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S17" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T17" t="n">
-        <v>1867.1984047608</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U17" t="n">
-        <v>1613.411982645667</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V17" t="n">
-        <v>1549.868582012772</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W17" t="n">
-        <v>1197.099926742658</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="X17" t="n">
-        <v>823.6341684815778</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Y17" t="n">
-        <v>433.4948365057661</v>
+        <v>2344.749822082216</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>665.4917812623953</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C18" t="n">
-        <v>665.4917812623953</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D18" t="n">
-        <v>665.4917812623953</v>
+        <v>298.7453260127371</v>
       </c>
       <c r="E18" t="n">
-        <v>506.2543262569397</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="F18" t="n">
-        <v>359.7197682838247</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="G18" t="n">
-        <v>221.6448824165167</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="H18" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I18" t="n">
         <v>46.89499644164432</v>
@@ -5595,49 +5597,49 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K18" t="n">
-        <v>276.0646041288937</v>
+        <v>121.6684232076319</v>
       </c>
       <c r="L18" t="n">
-        <v>645.6158192373775</v>
+        <v>491.2196383161158</v>
       </c>
       <c r="M18" t="n">
-        <v>1128.843878304552</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N18" t="n">
-        <v>1637.630816213677</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O18" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P18" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q18" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R18" t="n">
-        <v>2327.665099604151</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S18" t="n">
-        <v>2166.431544504706</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T18" t="n">
-        <v>1966.888846558737</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U18" t="n">
-        <v>1738.708382212894</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V18" t="n">
-        <v>1503.556273981152</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W18" t="n">
-        <v>1249.31891725295</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X18" t="n">
-        <v>1041.467417047417</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y18" t="n">
-        <v>833.7071182824634</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="19">
@@ -5647,7 +5649,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>136.388258736544</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C19" t="n">
         <v>46.89499644164432</v>
@@ -5701,22 +5703,22 @@
         <v>391.0727469424309</v>
       </c>
       <c r="T19" t="n">
-        <v>391.0727469424309</v>
+        <v>163.1743251005163</v>
       </c>
       <c r="U19" t="n">
-        <v>391.0727469424309</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="V19" t="n">
-        <v>136.388258736544</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="W19" t="n">
-        <v>136.388258736544</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X19" t="n">
-        <v>136.388258736544</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y19" t="n">
-        <v>136.388258736544</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>542.5821871309436</v>
+        <v>1493.73264649972</v>
       </c>
       <c r="C20" t="n">
-        <v>542.5821871309436</v>
+        <v>1493.73264649972</v>
       </c>
       <c r="D20" t="n">
-        <v>542.5821871309436</v>
+        <v>1135.46694789297</v>
       </c>
       <c r="E20" t="n">
-        <v>542.5821871309436</v>
+        <v>749.6786952947252</v>
       </c>
       <c r="F20" t="n">
-        <v>542.5821871309436</v>
+        <v>338.6927905051177</v>
       </c>
       <c r="G20" t="n">
-        <v>542.5821871309436</v>
+        <v>338.6927905051177</v>
       </c>
       <c r="H20" t="n">
         <v>212.2335778049849</v>
@@ -5750,16 +5752,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J20" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K20" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L20" t="n">
-        <v>762.5916738244549</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M20" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N20" t="n">
         <v>1610.799342072557</v>
@@ -5783,19 +5785,19 @@
         <v>1867.1984047608</v>
       </c>
       <c r="U20" t="n">
-        <v>1613.411982645667</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="V20" t="n">
-        <v>1282.349095302096</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="W20" t="n">
-        <v>929.5804400319823</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="X20" t="n">
-        <v>556.1146817709025</v>
+        <v>1493.73264649972</v>
       </c>
       <c r="Y20" t="n">
-        <v>542.5821871309436</v>
+        <v>1493.73264649972</v>
       </c>
     </row>
     <row r="21">
@@ -5805,31 +5807,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.8792202047736</v>
+        <v>921.1634746939509</v>
       </c>
       <c r="C21" t="n">
-        <v>814.4261909236466</v>
+        <v>746.7104454128239</v>
       </c>
       <c r="D21" t="n">
-        <v>665.4917812623953</v>
+        <v>597.7760357515726</v>
       </c>
       <c r="E21" t="n">
-        <v>506.2543262569397</v>
+        <v>438.5385807461172</v>
       </c>
       <c r="F21" t="n">
-        <v>359.7197682838247</v>
+        <v>292.0040227730022</v>
       </c>
       <c r="G21" t="n">
-        <v>221.6448824165167</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="H21" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I21" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J21" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K21" t="n">
         <v>273.1268607498447</v>
@@ -5856,25 +5858,25 @@
         <v>2284.306083296871</v>
       </c>
       <c r="S21" t="n">
-        <v>2284.306083296871</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T21" t="n">
-        <v>2084.763385350902</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="U21" t="n">
-        <v>2062.095821155272</v>
+        <v>1894.892063851584</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.94371292353</v>
+        <v>1659.739955619841</v>
       </c>
       <c r="W21" t="n">
-        <v>1572.706356195328</v>
+        <v>1405.50259889164</v>
       </c>
       <c r="X21" t="n">
-        <v>1364.854855989795</v>
+        <v>1197.651098686107</v>
       </c>
       <c r="Y21" t="n">
-        <v>1157.094557224842</v>
+        <v>989.8907999211528</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>453.4106385108907</v>
+        <v>2138.758986819787</v>
       </c>
       <c r="C22" t="n">
-        <v>453.4106385108907</v>
+        <v>2138.758986819787</v>
       </c>
       <c r="D22" t="n">
-        <v>453.4106385108907</v>
+        <v>2138.758986819787</v>
       </c>
       <c r="E22" t="n">
-        <v>401.7777381738809</v>
+        <v>2138.758986819787</v>
       </c>
       <c r="F22" t="n">
-        <v>401.7777381738809</v>
+        <v>2138.758986819787</v>
       </c>
       <c r="G22" t="n">
-        <v>401.7777381738809</v>
+        <v>2138.758986819787</v>
       </c>
       <c r="H22" t="n">
-        <v>242.8011754972942</v>
+        <v>1979.7824241432</v>
       </c>
       <c r="I22" t="n">
-        <v>102.3180182963936</v>
+        <v>1839.299266942299</v>
       </c>
       <c r="J22" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="K22" t="n">
-        <v>87.46721626702976</v>
+        <v>1824.448464912935</v>
       </c>
       <c r="L22" t="n">
-        <v>194.9121237200978</v>
+        <v>1931.893372366003</v>
       </c>
       <c r="M22" t="n">
-        <v>318.5868368362075</v>
+        <v>2055.568085482113</v>
       </c>
       <c r="N22" t="n">
-        <v>444.7554581228448</v>
+        <v>2181.736706768751</v>
       </c>
       <c r="O22" t="n">
-        <v>545.2763053496715</v>
+        <v>2282.257553995577</v>
       </c>
       <c r="P22" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q22" t="n">
-        <v>607.7685734363102</v>
+        <v>2303.765562347826</v>
       </c>
       <c r="R22" t="n">
-        <v>453.4106385108907</v>
+        <v>2149.407627422406</v>
       </c>
       <c r="S22" t="n">
-        <v>453.4106385108907</v>
+        <v>2138.758986819787</v>
       </c>
       <c r="T22" t="n">
-        <v>453.4106385108907</v>
+        <v>2138.758986819787</v>
       </c>
       <c r="U22" t="n">
-        <v>453.4106385108907</v>
+        <v>2138.758986819787</v>
       </c>
       <c r="V22" t="n">
-        <v>453.4106385108907</v>
+        <v>2138.758986819787</v>
       </c>
       <c r="W22" t="n">
-        <v>453.4106385108907</v>
+        <v>2138.758986819787</v>
       </c>
       <c r="X22" t="n">
-        <v>453.4106385108907</v>
+        <v>2138.758986819787</v>
       </c>
       <c r="Y22" t="n">
-        <v>453.4106385108907</v>
+        <v>2138.758986819787</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1536.135517417229</v>
+        <v>405.1606950483948</v>
       </c>
       <c r="C23" t="n">
-        <v>1167.173000476818</v>
+        <v>405.1606950483948</v>
       </c>
       <c r="D23" t="n">
-        <v>1167.173000476818</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E23" t="n">
-        <v>1167.173000476818</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F23" t="n">
-        <v>960.8539546480588</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G23" t="n">
-        <v>542.5821871309436</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H23" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I23" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J23" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K23" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L23" t="n">
         <v>762.591673824455</v>
@@ -6008,7 +6010,7 @@
         <v>2224.886645733487</v>
       </c>
       <c r="Q23" t="n">
-        <v>2344.749822082217</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R23" t="n">
         <v>2270.376276991246</v>
@@ -6020,19 +6022,19 @@
         <v>1867.1984047608</v>
       </c>
       <c r="U23" t="n">
-        <v>1867.1984047608</v>
+        <v>1865.731409702013</v>
       </c>
       <c r="V23" t="n">
-        <v>1536.135517417229</v>
+        <v>1534.668522358442</v>
       </c>
       <c r="W23" t="n">
-        <v>1536.135517417229</v>
+        <v>1181.899867088328</v>
       </c>
       <c r="X23" t="n">
-        <v>1536.135517417229</v>
+        <v>1181.899867088328</v>
       </c>
       <c r="Y23" t="n">
-        <v>1536.135517417229</v>
+        <v>791.7605351125167</v>
       </c>
     </row>
     <row r="24">
@@ -6042,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.8792202047736</v>
+        <v>982.9090180005296</v>
       </c>
       <c r="C24" t="n">
-        <v>814.4261909236466</v>
+        <v>808.4559887194026</v>
       </c>
       <c r="D24" t="n">
-        <v>665.4917812623953</v>
+        <v>659.5215790581514</v>
       </c>
       <c r="E24" t="n">
-        <v>506.2543262569397</v>
+        <v>500.2841240526959</v>
       </c>
       <c r="F24" t="n">
-        <v>359.7197682838247</v>
+        <v>353.7495660795809</v>
       </c>
       <c r="G24" t="n">
-        <v>221.6448824165167</v>
+        <v>215.6746802122729</v>
       </c>
       <c r="H24" t="n">
-        <v>114.6107419524668</v>
+        <v>108.640539748223</v>
       </c>
       <c r="I24" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J24" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K24" t="n">
-        <v>121.6684232076319</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L24" t="n">
-        <v>491.2196383161158</v>
+        <v>645.6158192373775</v>
       </c>
       <c r="M24" t="n">
-        <v>974.4476973832902</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N24" t="n">
-        <v>1486.172378671464</v>
+        <v>1640.568559592725</v>
       </c>
       <c r="O24" t="n">
-        <v>1887.88481026779</v>
+        <v>2042.280991189052</v>
       </c>
       <c r="P24" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q24" t="n">
         <v>2344.749822082216</v>
@@ -6099,19 +6101,19 @@
         <v>2284.306083296871</v>
       </c>
       <c r="U24" t="n">
-        <v>2062.095821155272</v>
+        <v>2056.125618951029</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.94371292353</v>
+        <v>1820.973510719286</v>
       </c>
       <c r="W24" t="n">
-        <v>1572.706356195328</v>
+        <v>1566.736153991084</v>
       </c>
       <c r="X24" t="n">
-        <v>1364.854855989795</v>
+        <v>1358.884653785552</v>
       </c>
       <c r="Y24" t="n">
-        <v>1157.094557224842</v>
+        <v>1151.124355020598</v>
       </c>
     </row>
     <row r="25">
@@ -6172,25 +6174,25 @@
         <v>607.7685734363102</v>
       </c>
       <c r="S25" t="n">
-        <v>391.0727469424309</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T25" t="n">
-        <v>369.0266184727847</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U25" t="n">
-        <v>369.0266184727847</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V25" t="n">
-        <v>369.0266184727847</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W25" t="n">
-        <v>369.0266184727847</v>
+        <v>318.3514033993496</v>
       </c>
       <c r="X25" t="n">
-        <v>369.0266184727847</v>
+        <v>318.3514033993496</v>
       </c>
       <c r="Y25" t="n">
-        <v>369.0266184727847</v>
+        <v>187.3781536425449</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1991.981166812102</v>
+        <v>1164.47789022513</v>
       </c>
       <c r="C26" t="n">
-        <v>1623.018649871691</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="D26" t="n">
-        <v>1264.75295126494</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="E26" t="n">
-        <v>878.9646986666958</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="F26" t="n">
-        <v>467.9787938770882</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="G26" t="n">
         <v>377.243605767603</v>
@@ -6254,22 +6256,22 @@
         <v>2344.749822082216</v>
       </c>
       <c r="T26" t="n">
-        <v>2344.749822082216</v>
+        <v>2280.851635732135</v>
       </c>
       <c r="U26" t="n">
-        <v>2344.749822082216</v>
+        <v>2280.851635732135</v>
       </c>
       <c r="V26" t="n">
-        <v>2344.749822082216</v>
+        <v>2280.851635732135</v>
       </c>
       <c r="W26" t="n">
-        <v>1991.981166812102</v>
+        <v>1928.082980462021</v>
       </c>
       <c r="X26" t="n">
-        <v>1991.981166812102</v>
+        <v>1554.617222200942</v>
       </c>
       <c r="Y26" t="n">
-        <v>1991.981166812102</v>
+        <v>1164.47789022513</v>
       </c>
     </row>
     <row r="27">
@@ -6279,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>676.0544483625931</v>
+        <v>921.1634746939509</v>
       </c>
       <c r="C27" t="n">
-        <v>501.6014190814661</v>
+        <v>746.7104454128239</v>
       </c>
       <c r="D27" t="n">
-        <v>352.6670094202149</v>
+        <v>597.7760357515726</v>
       </c>
       <c r="E27" t="n">
-        <v>193.4295544147594</v>
+        <v>438.5385807461172</v>
       </c>
       <c r="F27" t="n">
-        <v>46.89499644164432</v>
+        <v>292.0040227730022</v>
       </c>
       <c r="G27" t="n">
-        <v>46.89499644164432</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="H27" t="n">
         <v>46.89499644164432</v>
@@ -6336,19 +6338,19 @@
         <v>1923.529830251457</v>
       </c>
       <c r="U27" t="n">
-        <v>1749.271049313092</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V27" t="n">
-        <v>1514.118941081349</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="W27" t="n">
-        <v>1259.881584353148</v>
+        <v>1504.990610684506</v>
       </c>
       <c r="X27" t="n">
-        <v>1052.030084147615</v>
+        <v>1297.139110478973</v>
       </c>
       <c r="Y27" t="n">
-        <v>844.2697853826612</v>
+        <v>1089.378811714019</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2344.749822082216</v>
+        <v>318.3514033993496</v>
       </c>
       <c r="C28" t="n">
-        <v>2175.813639154309</v>
+        <v>318.3514033993496</v>
       </c>
       <c r="D28" t="n">
-        <v>2025.696999741974</v>
+        <v>193.7849439395547</v>
       </c>
       <c r="E28" t="n">
-        <v>1877.783906159581</v>
+        <v>193.7849439395547</v>
       </c>
       <c r="F28" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G28" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H28" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I28" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J28" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K28" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L28" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M28" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N28" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O28" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P28" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q28" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R28" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S28" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T28" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U28" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V28" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W28" t="n">
-        <v>2344.749822082216</v>
+        <v>318.3514033993496</v>
       </c>
       <c r="X28" t="n">
-        <v>2344.749822082216</v>
+        <v>318.3514033993496</v>
       </c>
       <c r="Y28" t="n">
-        <v>2344.749822082216</v>
+        <v>318.3514033993496</v>
       </c>
     </row>
     <row r="29">
@@ -6437,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1527.46828974532</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="C29" t="n">
-        <v>1158.505772804908</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="D29" t="n">
-        <v>1158.505772804908</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="E29" t="n">
-        <v>772.7175202066637</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="F29" t="n">
-        <v>361.7316154170562</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="G29" t="n">
-        <v>46.89499644164432</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H29" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I29" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J29" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K29" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L29" t="n">
-        <v>762.5916738244551</v>
+        <v>762.5916738244549</v>
       </c>
       <c r="M29" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N29" t="n">
         <v>1610.799342072557</v>
@@ -6485,28 +6487,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R29" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S29" t="n">
-        <v>2270.376276991246</v>
+        <v>2161.554709220192</v>
       </c>
       <c r="T29" t="n">
-        <v>2270.376276991246</v>
+        <v>1941.571949851771</v>
       </c>
       <c r="U29" t="n">
-        <v>2270.376276991246</v>
+        <v>1687.785527736638</v>
       </c>
       <c r="V29" t="n">
-        <v>2270.376276991246</v>
+        <v>1356.722640393067</v>
       </c>
       <c r="W29" t="n">
-        <v>1917.607621721131</v>
+        <v>1003.953985122953</v>
       </c>
       <c r="X29" t="n">
-        <v>1917.607621721131</v>
+        <v>630.4882268618733</v>
       </c>
       <c r="Y29" t="n">
-        <v>1527.46828974532</v>
+        <v>542.5821871309436</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.8792202047736</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C30" t="n">
-        <v>814.4261909236466</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D30" t="n">
-        <v>665.4917812623953</v>
+        <v>298.7453260127371</v>
       </c>
       <c r="E30" t="n">
-        <v>506.2543262569397</v>
+        <v>193.4295544147594</v>
       </c>
       <c r="F30" t="n">
-        <v>359.7197682838247</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G30" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H30" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I30" t="n">
         <v>46.89499644164432</v>
@@ -6552,10 +6554,10 @@
         <v>1128.843878304552</v>
       </c>
       <c r="N30" t="n">
-        <v>1637.630816213677</v>
+        <v>1640.568559592725</v>
       </c>
       <c r="O30" t="n">
-        <v>2039.343247810003</v>
+        <v>2042.280991189052</v>
       </c>
       <c r="P30" t="n">
         <v>2344.749822082216</v>
@@ -6564,28 +6566,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R30" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S30" t="n">
-        <v>2344.749822082216</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T30" t="n">
-        <v>2145.207124136247</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U30" t="n">
-        <v>2062.095821155272</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.94371292353</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W30" t="n">
-        <v>1572.706356195328</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X30" t="n">
-        <v>1364.854855989795</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y30" t="n">
-        <v>1157.094557224842</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>391.0727469424309</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="C31" t="n">
-        <v>391.0727469424309</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="D31" t="n">
-        <v>391.0727469424309</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="E31" t="n">
-        <v>391.0727469424309</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="F31" t="n">
-        <v>391.0727469424309</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="G31" t="n">
-        <v>221.9348066889404</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="H31" t="n">
-        <v>62.95824401235362</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="I31" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="J31" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="K31" t="n">
-        <v>87.46721626702976</v>
+        <v>1824.448464912935</v>
       </c>
       <c r="L31" t="n">
-        <v>194.9121237200978</v>
+        <v>1931.893372366003</v>
       </c>
       <c r="M31" t="n">
-        <v>318.5868368362075</v>
+        <v>2055.568085482113</v>
       </c>
       <c r="N31" t="n">
-        <v>444.7554581228448</v>
+        <v>2181.736706768751</v>
       </c>
       <c r="O31" t="n">
-        <v>545.2763053496715</v>
+        <v>2282.257553995577</v>
       </c>
       <c r="P31" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q31" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R31" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S31" t="n">
-        <v>391.0727469424309</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T31" t="n">
-        <v>391.0727469424309</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U31" t="n">
-        <v>391.0727469424309</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V31" t="n">
-        <v>391.0727469424309</v>
+        <v>2090.06533387633</v>
       </c>
       <c r="W31" t="n">
-        <v>391.0727469424309</v>
+        <v>1800.648163839369</v>
       </c>
       <c r="X31" t="n">
-        <v>391.0727469424309</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="Y31" t="n">
-        <v>391.0727469424309</v>
+        <v>1783.87624508755</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1570.897369376658</v>
+        <v>1270.77894749272</v>
       </c>
       <c r="C32" t="n">
-        <v>1201.934852436247</v>
+        <v>901.8164305523085</v>
       </c>
       <c r="D32" t="n">
-        <v>843.6691538294961</v>
+        <v>543.550731945558</v>
       </c>
       <c r="E32" t="n">
-        <v>457.8809012312519</v>
+        <v>543.550731945558</v>
       </c>
       <c r="F32" t="n">
-        <v>46.89499644164432</v>
+        <v>543.550731945558</v>
       </c>
       <c r="G32" t="n">
-        <v>46.89499644164432</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H32" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I32" t="n">
         <v>46.89499644164432</v>
@@ -6734,16 +6736,16 @@
         <v>2344.749822082217</v>
       </c>
       <c r="V32" t="n">
-        <v>2344.749822082217</v>
+        <v>2013.686934738646</v>
       </c>
       <c r="W32" t="n">
-        <v>2334.50245961355</v>
+        <v>1660.918279468532</v>
       </c>
       <c r="X32" t="n">
-        <v>1961.03670135247</v>
+        <v>1660.918279468532</v>
       </c>
       <c r="Y32" t="n">
-        <v>1570.897369376658</v>
+        <v>1270.77894749272</v>
       </c>
     </row>
     <row r="33">
@@ -6753,46 +6755,46 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>676.0544483625931</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C33" t="n">
-        <v>501.6014190814661</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D33" t="n">
-        <v>352.6670094202149</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E33" t="n">
-        <v>193.4295544147594</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F33" t="n">
-        <v>46.89499644164432</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G33" t="n">
-        <v>46.89499644164432</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H33" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I33" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J33" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K33" t="n">
-        <v>336.0641406922996</v>
+        <v>273.1268607498447</v>
       </c>
       <c r="L33" t="n">
-        <v>705.6153558007836</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M33" t="n">
-        <v>1188.843414867958</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.568096156132</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O33" t="n">
-        <v>2102.280527752458</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P33" t="n">
         <v>2344.749822082216</v>
@@ -6801,28 +6803,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R33" t="n">
-        <v>2338.227766704349</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S33" t="n">
-        <v>2176.994211604904</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T33" t="n">
-        <v>1977.451513658935</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="U33" t="n">
-        <v>1749.271049313092</v>
+        <v>2062.095821155272</v>
       </c>
       <c r="V33" t="n">
-        <v>1514.118941081349</v>
+        <v>1826.94371292353</v>
       </c>
       <c r="W33" t="n">
-        <v>1259.881584353148</v>
+        <v>1572.706356195328</v>
       </c>
       <c r="X33" t="n">
-        <v>1052.030084147615</v>
+        <v>1364.854855989795</v>
       </c>
       <c r="Y33" t="n">
-        <v>844.2697853826612</v>
+        <v>1157.094557224842</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>236.7148120170114</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="C34" t="n">
-        <v>236.7148120170114</v>
+        <v>2175.813639154309</v>
       </c>
       <c r="D34" t="n">
-        <v>236.7148120170114</v>
+        <v>2025.696999741974</v>
       </c>
       <c r="E34" t="n">
-        <v>236.7148120170114</v>
+        <v>1877.783906159581</v>
       </c>
       <c r="F34" t="n">
-        <v>236.7148120170114</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="G34" t="n">
-        <v>236.7148120170114</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="H34" t="n">
-        <v>77.73824934042466</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="I34" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="J34" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="K34" t="n">
-        <v>87.46721626702976</v>
+        <v>1824.448464912935</v>
       </c>
       <c r="L34" t="n">
-        <v>194.9121237200978</v>
+        <v>1931.893372366003</v>
       </c>
       <c r="M34" t="n">
-        <v>318.5868368362075</v>
+        <v>2055.568085482113</v>
       </c>
       <c r="N34" t="n">
-        <v>444.7554581228448</v>
+        <v>2181.736706768751</v>
       </c>
       <c r="O34" t="n">
-        <v>545.2763053496715</v>
+        <v>2282.257553995577</v>
       </c>
       <c r="P34" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q34" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R34" t="n">
-        <v>453.4106385108907</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S34" t="n">
-        <v>236.7148120170114</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T34" t="n">
-        <v>236.7148120170114</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U34" t="n">
-        <v>236.7148120170114</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V34" t="n">
-        <v>236.7148120170114</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W34" t="n">
-        <v>236.7148120170114</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="X34" t="n">
-        <v>236.7148120170114</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Y34" t="n">
-        <v>236.7148120170114</v>
+        <v>2344.749822082216</v>
       </c>
     </row>
     <row r="35">
@@ -6911,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>774.1232119888066</v>
+        <v>1570.897369376658</v>
       </c>
       <c r="C35" t="n">
-        <v>405.1606950483948</v>
+        <v>1201.934852436247</v>
       </c>
       <c r="D35" t="n">
-        <v>46.89499644164432</v>
+        <v>843.6691538294961</v>
       </c>
       <c r="E35" t="n">
-        <v>46.89499644164432</v>
+        <v>457.8809012312519</v>
       </c>
       <c r="F35" t="n">
         <v>46.89499644164432</v>
@@ -6935,16 +6937,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J35" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K35" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L35" t="n">
-        <v>762.5916738244549</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M35" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N35" t="n">
         <v>1610.799342072557</v>
@@ -6959,28 +6961,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R35" t="n">
-        <v>2277.096797559934</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S35" t="n">
-        <v>2277.096797559934</v>
+        <v>2161.554709220192</v>
       </c>
       <c r="T35" t="n">
-        <v>2277.096797559934</v>
+        <v>1941.571949851771</v>
       </c>
       <c r="U35" t="n">
-        <v>2277.096797559934</v>
+        <v>1941.571949851771</v>
       </c>
       <c r="V35" t="n">
-        <v>2277.096797559934</v>
+        <v>1610.5090625082</v>
       </c>
       <c r="W35" t="n">
-        <v>1924.32814228982</v>
+        <v>1610.5090625082</v>
       </c>
       <c r="X35" t="n">
-        <v>1550.86238402874</v>
+        <v>1610.5090625082</v>
       </c>
       <c r="Y35" t="n">
-        <v>1160.723052052928</v>
+        <v>1610.5090625082</v>
       </c>
     </row>
     <row r="36">
@@ -6990,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>622.1327649551154</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C36" t="n">
-        <v>447.6797356739884</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D36" t="n">
-        <v>298.7453260127371</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E36" t="n">
-        <v>139.5078710072816</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F36" t="n">
-        <v>114.6107419524668</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G36" t="n">
-        <v>114.6107419524668</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H36" t="n">
         <v>114.6107419524668</v>
@@ -7014,7 +7016,7 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J36" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K36" t="n">
         <v>121.6684232076319</v>
@@ -7044,22 +7046,22 @@
         <v>2123.072528197426</v>
       </c>
       <c r="T36" t="n">
-        <v>1923.529830251457</v>
+        <v>2055.124177269372</v>
       </c>
       <c r="U36" t="n">
-        <v>1695.349365905614</v>
+        <v>1826.94371292353</v>
       </c>
       <c r="V36" t="n">
-        <v>1460.197257673872</v>
+        <v>1826.94371292353</v>
       </c>
       <c r="W36" t="n">
-        <v>1205.95990094567</v>
+        <v>1572.706356195328</v>
       </c>
       <c r="X36" t="n">
-        <v>998.1084007401373</v>
+        <v>1364.854855989795</v>
       </c>
       <c r="Y36" t="n">
-        <v>790.3481019751835</v>
+        <v>1157.094557224842</v>
       </c>
     </row>
     <row r="37">
@@ -7069,10 +7071,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>197.0116358539801</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C37" t="n">
-        <v>197.0116358539801</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D37" t="n">
         <v>46.89499644164432</v>
@@ -7114,31 +7116,31 @@
         <v>607.7685734363102</v>
       </c>
       <c r="Q37" t="n">
-        <v>607.7685734363102</v>
+        <v>566.78431370192</v>
       </c>
       <c r="R37" t="n">
-        <v>607.7685734363102</v>
+        <v>566.78431370192</v>
       </c>
       <c r="S37" t="n">
-        <v>607.7685734363102</v>
+        <v>350.0884872080407</v>
       </c>
       <c r="T37" t="n">
-        <v>607.7685734363102</v>
+        <v>122.1900653661261</v>
       </c>
       <c r="U37" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="V37" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="W37" t="n">
-        <v>318.3514033993496</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X37" t="n">
-        <v>318.3514033993496</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y37" t="n">
-        <v>318.3514033993496</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>897.3131892316399</v>
+        <v>1961.252047612982</v>
       </c>
       <c r="C38" t="n">
-        <v>528.3506722912282</v>
+        <v>1592.28953067257</v>
       </c>
       <c r="D38" t="n">
-        <v>170.0849736844777</v>
+        <v>1592.28953067257</v>
       </c>
       <c r="E38" t="n">
-        <v>46.89499644164432</v>
+        <v>1206.501278074326</v>
       </c>
       <c r="F38" t="n">
-        <v>46.89499644164432</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="G38" t="n">
-        <v>46.89499644164432</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H38" t="n">
         <v>46.89499644164432</v>
@@ -7175,10 +7177,10 @@
         <v>137.0453218915536</v>
       </c>
       <c r="K38" t="n">
-        <v>392.9020949275679</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L38" t="n">
-        <v>762.5916738244553</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M38" t="n">
         <v>1190.549107376119</v>
@@ -7196,28 +7198,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R38" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S38" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T38" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="U38" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="V38" t="n">
-        <v>2013.686934738646</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="W38" t="n">
-        <v>1660.918279468531</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="X38" t="n">
-        <v>1287.452521207452</v>
+        <v>1961.252047612982</v>
       </c>
       <c r="Y38" t="n">
-        <v>897.3131892316399</v>
+        <v>1961.252047612982</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.8792202047736</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C39" t="n">
-        <v>814.4261909236466</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D39" t="n">
-        <v>665.4917812623953</v>
+        <v>298.7453260127371</v>
       </c>
       <c r="E39" t="n">
-        <v>506.2543262569397</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="F39" t="n">
-        <v>359.7197682838247</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="G39" t="n">
-        <v>221.6448824165167</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="H39" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I39" t="n">
         <v>46.89499644164432</v>
@@ -7254,49 +7256,49 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K39" t="n">
-        <v>336.0641406922997</v>
+        <v>273.1268607498447</v>
       </c>
       <c r="L39" t="n">
-        <v>705.6153558007836</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M39" t="n">
-        <v>1188.843414867958</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N39" t="n">
-        <v>1486.172378671464</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O39" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P39" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q39" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R39" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S39" t="n">
-        <v>2183.516266982771</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T39" t="n">
-        <v>2183.516266982771</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U39" t="n">
-        <v>2062.095821155272</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.94371292353</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W39" t="n">
-        <v>1572.706356195328</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X39" t="n">
-        <v>1364.854855989795</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y39" t="n">
-        <v>1157.094557224842</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="40">
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1783.87624508755</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="C40" t="n">
-        <v>1783.87624508755</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="D40" t="n">
-        <v>1783.87624508755</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="E40" t="n">
-        <v>1783.87624508755</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="F40" t="n">
-        <v>1783.87624508755</v>
+        <v>2252.473905218528</v>
       </c>
       <c r="G40" t="n">
-        <v>1783.87624508755</v>
+        <v>2083.335964965037</v>
       </c>
       <c r="H40" t="n">
-        <v>1783.87624508755</v>
+        <v>1924.359402288451</v>
       </c>
       <c r="I40" t="n">
         <v>1783.87624508755</v>
@@ -7351,31 +7353,31 @@
         <v>2344.749822082216</v>
       </c>
       <c r="Q40" t="n">
-        <v>2303.765562347826</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R40" t="n">
-        <v>2149.407627422406</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S40" t="n">
-        <v>1932.711800928527</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T40" t="n">
-        <v>1783.87624508755</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U40" t="n">
-        <v>1783.87624508755</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V40" t="n">
-        <v>1783.87624508755</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W40" t="n">
-        <v>1783.87624508755</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="X40" t="n">
-        <v>1783.87624508755</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Y40" t="n">
-        <v>1783.87624508755</v>
+        <v>2344.749822082216</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>900.2161093691072</v>
+        <v>1490.260073913009</v>
       </c>
       <c r="C41" t="n">
-        <v>531.2535924286956</v>
+        <v>1121.297556972598</v>
       </c>
       <c r="D41" t="n">
-        <v>531.2535924286956</v>
+        <v>763.0318583658473</v>
       </c>
       <c r="E41" t="n">
-        <v>145.4653398304513</v>
+        <v>377.243605767603</v>
       </c>
       <c r="F41" t="n">
-        <v>46.89499644164432</v>
+        <v>377.243605767603</v>
       </c>
       <c r="G41" t="n">
-        <v>46.89499644164432</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H41" t="n">
         <v>46.89499644164432</v>
@@ -7409,13 +7411,13 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J41" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K41" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275679</v>
       </c>
       <c r="L41" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244553</v>
       </c>
       <c r="M41" t="n">
         <v>1190.549107376119</v>
@@ -7433,28 +7435,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R41" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S41" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T41" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U41" t="n">
-        <v>2016.589854876113</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V41" t="n">
-        <v>2016.589854876113</v>
+        <v>2216.494487444204</v>
       </c>
       <c r="W41" t="n">
-        <v>1663.821199605999</v>
+        <v>1863.725832174089</v>
       </c>
       <c r="X41" t="n">
-        <v>1290.355441344919</v>
+        <v>1490.260073913009</v>
       </c>
       <c r="Y41" t="n">
-        <v>900.2161093691072</v>
+        <v>1490.260073913009</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>890.3368025054142</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C42" t="n">
-        <v>715.8837732242872</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D42" t="n">
-        <v>566.9493635630359</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E42" t="n">
-        <v>407.7119085575804</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F42" t="n">
-        <v>261.1773505844654</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G42" t="n">
-        <v>153.9291369056942</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H42" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I42" t="n">
         <v>46.89499644164432</v>
@@ -7503,10 +7505,10 @@
         <v>1640.568559592726</v>
       </c>
       <c r="O42" t="n">
-        <v>2042.280991189052</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P42" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q42" t="n">
         <v>2344.749822082216</v>
@@ -7530,10 +7532,10 @@
         <v>1266.403639731015</v>
       </c>
       <c r="X42" t="n">
-        <v>1058.552139525482</v>
+        <v>1266.403639731015</v>
       </c>
       <c r="Y42" t="n">
-        <v>1058.552139525482</v>
+        <v>1157.094557224842</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>365.947818781887</v>
+        <v>2249.819014925703</v>
       </c>
       <c r="C43" t="n">
-        <v>197.0116358539801</v>
+        <v>2080.882831997796</v>
       </c>
       <c r="D43" t="n">
-        <v>46.89499644164432</v>
+        <v>1930.76619258546</v>
       </c>
       <c r="E43" t="n">
-        <v>46.89499644164432</v>
+        <v>1930.76619258546</v>
       </c>
       <c r="F43" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="G43" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="H43" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="I43" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="J43" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="K43" t="n">
-        <v>87.46721626702977</v>
+        <v>1824.448464912935</v>
       </c>
       <c r="L43" t="n">
-        <v>194.9121237200978</v>
+        <v>1931.893372366003</v>
       </c>
       <c r="M43" t="n">
-        <v>318.5868368362075</v>
+        <v>2055.568085482113</v>
       </c>
       <c r="N43" t="n">
-        <v>444.7554581228448</v>
+        <v>2181.736706768751</v>
       </c>
       <c r="O43" t="n">
-        <v>545.2763053496715</v>
+        <v>2282.257553995577</v>
       </c>
       <c r="P43" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q43" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R43" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S43" t="n">
-        <v>607.7685734363102</v>
+        <v>2249.819014925703</v>
       </c>
       <c r="T43" t="n">
-        <v>607.7685734363102</v>
+        <v>2249.819014925703</v>
       </c>
       <c r="U43" t="n">
-        <v>607.7685734363102</v>
+        <v>2249.819014925703</v>
       </c>
       <c r="V43" t="n">
-        <v>607.7685734363102</v>
+        <v>2249.819014925703</v>
       </c>
       <c r="W43" t="n">
-        <v>607.7685734363102</v>
+        <v>2249.819014925703</v>
       </c>
       <c r="X43" t="n">
-        <v>607.7685734363102</v>
+        <v>2249.819014925703</v>
       </c>
       <c r="Y43" t="n">
-        <v>547.5962836121267</v>
+        <v>2249.819014925703</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1194.544891781203</v>
+        <v>876.152668748367</v>
       </c>
       <c r="C44" t="n">
-        <v>1194.544891781203</v>
+        <v>876.152668748367</v>
       </c>
       <c r="D44" t="n">
-        <v>836.2791931744525</v>
+        <v>876.152668748367</v>
       </c>
       <c r="E44" t="n">
-        <v>795.5153732847182</v>
+        <v>876.152668748367</v>
       </c>
       <c r="F44" t="n">
-        <v>795.5153732847182</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="G44" t="n">
-        <v>377.243605767603</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H44" t="n">
         <v>46.89499644164432</v>
@@ -7646,16 +7648,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J44" t="n">
-        <v>137.045321891553</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K44" t="n">
-        <v>392.9020949275671</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L44" t="n">
-        <v>762.5916738244546</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M44" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N44" t="n">
         <v>1610.799342072557</v>
@@ -7673,25 +7675,25 @@
         <v>2344.749822082216</v>
       </c>
       <c r="S44" t="n">
-        <v>2344.749822082216</v>
+        <v>2203.937487500293</v>
       </c>
       <c r="T44" t="n">
-        <v>2344.749822082216</v>
+        <v>1983.954728131871</v>
       </c>
       <c r="U44" t="n">
-        <v>2344.749822082216</v>
+        <v>1983.954728131871</v>
       </c>
       <c r="V44" t="n">
-        <v>2344.749822082216</v>
+        <v>1652.8918407883</v>
       </c>
       <c r="W44" t="n">
-        <v>2344.749822082216</v>
+        <v>1652.8918407883</v>
       </c>
       <c r="X44" t="n">
-        <v>1971.284063821136</v>
+        <v>1652.8918407883</v>
       </c>
       <c r="Y44" t="n">
-        <v>1581.144731845325</v>
+        <v>1262.752508812489</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>921.1634746939509</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C45" t="n">
-        <v>746.7104454128239</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D45" t="n">
-        <v>597.7760357515726</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E45" t="n">
-        <v>438.5385807461172</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F45" t="n">
-        <v>292.0040227730022</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G45" t="n">
-        <v>153.9291369056942</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H45" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I45" t="n">
         <v>46.89499644164432</v>
@@ -7728,22 +7730,22 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K45" t="n">
-        <v>121.6684232076319</v>
+        <v>273.1268607498447</v>
       </c>
       <c r="L45" t="n">
-        <v>491.2196383161158</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M45" t="n">
-        <v>974.4476973832902</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N45" t="n">
-        <v>1486.172378671464</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O45" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P45" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q45" t="n">
         <v>2344.749822082216</v>
@@ -7752,25 +7754,25 @@
         <v>2344.749822082216</v>
       </c>
       <c r="S45" t="n">
-        <v>2193.922773590419</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T45" t="n">
-        <v>1994.38007564445</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="U45" t="n">
-        <v>1994.38007564445</v>
+        <v>1955.335802636929</v>
       </c>
       <c r="V45" t="n">
-        <v>1759.227967412707</v>
+        <v>1826.94371292353</v>
       </c>
       <c r="W45" t="n">
-        <v>1504.990610684506</v>
+        <v>1572.706356195328</v>
       </c>
       <c r="X45" t="n">
-        <v>1297.139110478973</v>
+        <v>1364.854855989795</v>
       </c>
       <c r="Y45" t="n">
-        <v>1089.378811714019</v>
+        <v>1157.094557224842</v>
       </c>
     </row>
     <row r="46">
@@ -7780,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1900.155573746422</v>
+        <v>1953.014185341041</v>
       </c>
       <c r="C46" t="n">
-        <v>1900.155573746422</v>
+        <v>1953.014185341041</v>
       </c>
       <c r="D46" t="n">
-        <v>1900.155573746422</v>
+        <v>1953.014185341041</v>
       </c>
       <c r="E46" t="n">
-        <v>1900.155573746422</v>
+        <v>1953.014185341041</v>
       </c>
       <c r="F46" t="n">
-        <v>1900.155573746422</v>
+        <v>1953.014185341041</v>
       </c>
       <c r="G46" t="n">
         <v>1783.87624508755</v>
@@ -7831,25 +7833,25 @@
         <v>2344.749822082216</v>
       </c>
       <c r="S46" t="n">
-        <v>2128.053995588337</v>
+        <v>2180.912607182955</v>
       </c>
       <c r="T46" t="n">
-        <v>1900.155573746422</v>
+        <v>1953.014185341041</v>
       </c>
       <c r="U46" t="n">
-        <v>1900.155573746422</v>
+        <v>1953.014185341041</v>
       </c>
       <c r="V46" t="n">
-        <v>1900.155573746422</v>
+        <v>1953.014185341041</v>
       </c>
       <c r="W46" t="n">
-        <v>1900.155573746422</v>
+        <v>1953.014185341041</v>
       </c>
       <c r="X46" t="n">
-        <v>1900.155573746422</v>
+        <v>1953.014185341041</v>
       </c>
       <c r="Y46" t="n">
-        <v>1900.155573746422</v>
+        <v>1953.014185341041</v>
       </c>
     </row>
   </sheetData>
@@ -8058,22 +8060,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>299.7352039419416</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8216,7 +8218,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8304,13 +8306,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>247.3552705420797</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8532,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>369.031319612638</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9003,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>65.48544285212002</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>108.5094987082741</v>
+        <v>47.90390621998491</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9243,7 +9245,7 @@
         <v>65.48544285212</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>108.5094987082738</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9252,7 +9254,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>476.3749567889587</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9261,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>57.08896698613911</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9477,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>261.4978194579837</v>
+        <v>200.8922269696948</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9714,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K24" t="n">
-        <v>47.90390621998491</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9732,10 +9734,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>315.4953510853424</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -10200,13 +10202,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>476.3749567889587</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>315.4953510853424</v>
       </c>
       <c r="Q30" t="n">
         <v>57.08896698613911</v>
@@ -10425,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>261.4978194579837</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10443,7 +10445,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>254.8897585970532</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>57.08896698613911</v>
@@ -10662,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K36" t="n">
-        <v>47.90390621998491</v>
+        <v>108.5094987082738</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10902,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>200.8922269696948</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10911,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>262.7810435509598</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10920,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11078,7 +11080,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599042</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11151,13 +11153,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>237.9065809724246</v>
       </c>
       <c r="P42" t="n">
-        <v>315.495351085342</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>57.0889669861391</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720732</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11312,7 +11314,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714823</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11376,7 +11378,7 @@
         <v>65.48544285212</v>
       </c>
       <c r="K45" t="n">
-        <v>108.5094987082737</v>
+        <v>261.4978194579836</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11394,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>57.0889669861391</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23258,22 +23260,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>327.0451232326991</v>
+        <v>230.0132162696054</v>
       </c>
       <c r="I11" t="n">
         <v>163.6851955497072</v>
@@ -23309,22 +23311,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>288.9864959217995</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23382,13 +23384,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>5.910500182201289</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S12" t="n">
         <v>159.6212195484502</v>
       </c>
       <c r="T12" t="n">
-        <v>197.5472709665096</v>
+        <v>143.6184697512195</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23495,19 +23497,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>247.3833419510956</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>414.089049841944</v>
+        <v>34.21306031949518</v>
       </c>
       <c r="H14" t="n">
         <v>327.0451232326991</v>
@@ -23540,25 +23542,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23580,7 +23582,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>130.2784035477363</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -23619,19 +23621,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>143.6184697512195</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -23662,7 +23664,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>108.936681964082</v>
+        <v>54.06789032788008</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23674,7 +23676,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>40.57441713704632</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R16" t="n">
         <v>152.8143555761653</v>
@@ -23729,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>139.5089120370666</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V17" t="n">
-        <v>264.8442918435686</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23811,25 +23813,25 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>14.27705323942851</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>42.92542614420704</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -23890,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>78.64849142667713</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23941,13 +23943,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2893338015361</v>
+        <v>171.1727984292529</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23972,19 +23974,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>414.089049841944</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>201.8505026595677</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24023,19 +24025,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>372.8407689624942</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24045,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>98.4931316749374</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -24066,7 +24068,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24096,13 +24098,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U21" t="n">
-        <v>203.4577711487112</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24133,7 +24135,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>95.31739131292947</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24169,13 +24171,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>214.5288682289405</v>
+        <v>203.986714032347</v>
       </c>
       <c r="T22" t="n">
         <v>225.6194376234954</v>
@@ -24203,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>202.62019037124</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24260,19 +24262,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2485578939812</v>
+        <v>249.7962327857823</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24303,7 +24305,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>5.910500182201396</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24339,7 +24341,7 @@
         <v>197.5472709665096</v>
       </c>
       <c r="U24" t="n">
-        <v>5.910500182201503</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24412,10 +24414,10 @@
         <v>152.8143555761653</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T25" t="n">
-        <v>203.7937704385456</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U25" t="n">
         <v>286.2893338015361</v>
@@ -24424,13 +24426,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>88.92113609285815</v>
       </c>
     </row>
     <row r="26">
@@ -24446,16 +24448,16 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>324.2612136135537</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24494,7 +24496,7 @@
         <v>181.3631617334038</v>
       </c>
       <c r="T26" t="n">
-        <v>217.7829317747374</v>
+        <v>154.5237272881575</v>
       </c>
       <c r="U26" t="n">
         <v>251.2485578939812</v>
@@ -24506,10 +24508,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24534,10 +24536,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>67.03858805571426</v>
@@ -24576,13 +24578,13 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>53.38246657340306</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>63.23981549202188</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -24601,16 +24603,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>25.29467815301537</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>52.45246356162097</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>167.4465608509556</v>
@@ -24661,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24680,25 +24682,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>102.4007970562863</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H29" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S29" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>299.2109593224332</v>
       </c>
     </row>
     <row r="30">
@@ -24765,19 +24767,19 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>53.38246657340298</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24804,16 +24806,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>143.6184697512197</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24850,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I31" t="n">
-        <v>123.1757105338894</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J31" t="n">
         <v>54.86879163620181</v>
@@ -24886,7 +24888,7 @@
         <v>152.8143555761653</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T31" t="n">
         <v>225.6194376234954</v>
@@ -24895,13 +24897,13 @@
         <v>286.2893338015361</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>209.1054558247364</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24923,19 +24925,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>414.089049841944</v>
+        <v>413.1301904754757</v>
       </c>
       <c r="H32" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24974,13 +24976,13 @@
         <v>251.2485578939812</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>339.0960798734329</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25008,13 +25010,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25041,16 +25043,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>53.38246657340287</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>105.6924183331604</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -25075,25 +25077,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>52.45246356162097</v>
       </c>
       <c r="G34" t="n">
         <v>167.4465608509556</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I34" t="n">
-        <v>108.543505259099</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J34" t="n">
         <v>54.86879163620181</v>
@@ -25120,10 +25122,10 @@
         <v>40.57441713704631</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T34" t="n">
         <v>225.6194376234954</v>
@@ -25151,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>343.5182654632544</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25160,10 +25162,10 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>414.089049841944</v>
@@ -25199,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>6.65331536300188</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S35" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.2485578939812</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25242,13 +25244,13 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>120.4210546291172</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25284,13 +25286,13 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>130.2784035477362</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -25309,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>59.70561031202143</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25354,25 +25356,25 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>152.8143555761653</v>
       </c>
       <c r="S37" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2893338015361</v>
+        <v>211.7472155662992</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25394,19 +25396,19 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>259.9722926018567</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>163.6851955497072</v>
@@ -25436,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>73.62980964006111</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>181.3631617334038</v>
@@ -25448,16 +25450,16 @@
         <v>251.2485578939812</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>63.69811359398784</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25476,19 +25478,19 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>14.27705323942851</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25515,16 +25517,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>59.83930139749141</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>105.6924183331604</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25558,16 +25560,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>54.06789032787962</v>
       </c>
       <c r="G40" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>139.0783256288915</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>54.86879163620181</v>
@@ -25591,16 +25593,16 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T40" t="n">
-        <v>78.27223734092829</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U40" t="n">
         <v>286.2893338015361</v>
@@ -25631,19 +25633,19 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>309.2914057867925</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>414.089049841944</v>
       </c>
       <c r="H41" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>163.6851955497072</v>
@@ -25673,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S41" t="n">
         <v>181.3631617334038</v>
@@ -25682,10 +25684,10 @@
         <v>217.7829317747374</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>200.7794771785023</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25694,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25719,13 +25721,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>30.51840546665137</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>67.03858805571424</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25770,10 +25772,10 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>97.46670409619252</v>
       </c>
     </row>
     <row r="43">
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25795,7 +25797,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>167.4465608509556</v>
@@ -25834,7 +25836,7 @@
         <v>152.8143555761653</v>
       </c>
       <c r="S43" t="n">
-        <v>214.5288682289405</v>
+        <v>120.5473691439924</v>
       </c>
       <c r="T43" t="n">
         <v>225.6194376234954</v>
@@ -25852,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>159.0140864261531</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25868,19 +25870,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>341.5741883814248</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I44" t="n">
         <v>163.6851955497072</v>
@@ -25913,22 +25915,22 @@
         <v>73.62980964006111</v>
       </c>
       <c r="S44" t="n">
-        <v>181.3631617334038</v>
+        <v>41.9589504972995</v>
       </c>
       <c r="T44" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>251.2485578939812</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -25962,7 +25964,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>67.03858805571424</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25992,16 +25994,16 @@
         <v>59.83930139749141</v>
       </c>
       <c r="S45" t="n">
-        <v>10.30244154157108</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8986597023843</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>105.6924183331603</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -26035,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>52.33002547867198</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>157.3867970498209</v>
@@ -26071,7 +26073,7 @@
         <v>152.8143555761653</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>52.33002547867196</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>629866.0504453484</v>
+        <v>629866.0504453481</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>629866.0504453484</v>
+        <v>629866.0504453481</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>629866.050445348</v>
+        <v>629866.0504453483</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>629866.0504453481</v>
+        <v>629866.0504453483</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>629866.0504453481</v>
+        <v>629866.050445348</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>629866.0504453484</v>
+        <v>629866.0504453481</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>629866.0504453481</v>
+        <v>629866.0504453484</v>
       </c>
     </row>
     <row r="15">
@@ -26317,43 +26319,43 @@
         <v>513151.106165177</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651768</v>
       </c>
       <c r="E2" t="n">
-        <v>330470.1247052693</v>
+        <v>330470.1247052692</v>
       </c>
       <c r="F2" t="n">
         <v>330470.1247052692</v>
       </c>
       <c r="G2" t="n">
-        <v>330470.1247052691</v>
+        <v>330470.1247052692</v>
       </c>
       <c r="H2" t="n">
-        <v>330470.1247052694</v>
+        <v>330470.1247052692</v>
       </c>
       <c r="I2" t="n">
         <v>330470.1247052692</v>
       </c>
       <c r="J2" t="n">
-        <v>330470.1247052692</v>
+        <v>330470.1247052694</v>
       </c>
       <c r="K2" t="n">
         <v>330470.1247052692</v>
       </c>
       <c r="L2" t="n">
+        <v>330470.1247052691</v>
+      </c>
+      <c r="M2" t="n">
+        <v>330470.1247052693</v>
+      </c>
+      <c r="N2" t="n">
         <v>330470.1247052692</v>
-      </c>
-      <c r="M2" t="n">
-        <v>330470.1247052691</v>
-      </c>
-      <c r="N2" t="n">
-        <v>330470.124705269</v>
       </c>
       <c r="O2" t="n">
         <v>330470.1247052692</v>
       </c>
       <c r="P2" t="n">
-        <v>330470.1247052691</v>
+        <v>330470.1247052692</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>86018.53382007605</v>
+        <v>86018.53382007603</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>312595.3744187172</v>
+        <v>312595.3744187171</v>
       </c>
       <c r="C4" t="n">
         <v>312595.3744187171</v>
@@ -26454,7 +26456,7 @@
         <v>35464.97636158489</v>
       </c>
       <c r="O4" t="n">
-        <v>35464.97636158488</v>
+        <v>35464.97636158489</v>
       </c>
       <c r="P4" t="n">
         <v>35464.97636158489</v>
@@ -26519,16 +26521,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>71505.03145115043</v>
+        <v>71505.03145115048</v>
       </c>
       <c r="C6" t="n">
         <v>152274.4629826982</v>
       </c>
       <c r="D6" t="n">
-        <v>152274.4629826982</v>
+        <v>152274.4629826981</v>
       </c>
       <c r="E6" t="n">
-        <v>-92828.91656071489</v>
+        <v>-92828.91656071495</v>
       </c>
       <c r="F6" t="n">
         <v>252783.4262182378</v>
@@ -26537,25 +26539,25 @@
         <v>252783.4262182377</v>
       </c>
       <c r="H6" t="n">
-        <v>252783.426218238</v>
+        <v>252783.4262182378</v>
       </c>
       <c r="I6" t="n">
-        <v>252783.4262182377</v>
+        <v>252783.4262182378</v>
       </c>
       <c r="J6" t="n">
-        <v>189723.4836191315</v>
+        <v>189723.4836191317</v>
       </c>
       <c r="K6" t="n">
         <v>252783.4262182378</v>
       </c>
       <c r="L6" t="n">
-        <v>252783.4262182378</v>
+        <v>252783.4262182376</v>
       </c>
       <c r="M6" t="n">
-        <v>166764.8923981616</v>
+        <v>166764.8923981618</v>
       </c>
       <c r="N6" t="n">
-        <v>252783.4262182376</v>
+        <v>252783.4262182377</v>
       </c>
       <c r="O6" t="n">
         <v>252783.4262182377</v>
@@ -26771,7 +26773,7 @@
         <v>301.9048087062786</v>
       </c>
       <c r="N3" t="n">
-        <v>301.9048087062787</v>
+        <v>301.9048087062786</v>
       </c>
       <c r="O3" t="n">
         <v>301.9048087062787</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>345.1731666428951</v>
+        <v>345.173166642895</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>345.1731666428951</v>
+        <v>345.173166642895</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,7 +27387,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F2" t="n">
         <v>165.8617568640524</v>
@@ -27436,16 +27438,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>287.2759793369997</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>345.7616595229184</v>
       </c>
     </row>
     <row r="3">
@@ -27455,13 +27457,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27470,16 +27472,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27509,10 +27511,10 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>102.3410493332383</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27524,7 +27526,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>141.1176411966843</v>
       </c>
     </row>
     <row r="4">
@@ -27555,13 +27557,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>44.5329991677731</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27603,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>178.7568658833995</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27625,19 +27627,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>204.5813593128142</v>
       </c>
       <c r="G5" t="n">
-        <v>374.8264583819999</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27661,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -27670,7 +27672,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27682,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -27707,7 +27709,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>19.8036215502736</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -27761,7 +27763,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>88.14280016436733</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27795,7 +27797,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>49.05569651810563</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -27813,10 +27815,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -27834,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27862,16 +27864,16 @@
         <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>10.31505646155395</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27903,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27919,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>195.8925415817687</v>
       </c>
     </row>
     <row r="9">
@@ -27929,25 +27931,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>139.4266568331837</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -27977,7 +27979,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>63.71860238608547</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -28026,7 +28028,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
         <v>155.4504749272583</v>
@@ -28068,7 +28070,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -31993,25 +31995,25 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I14" t="n">
-        <v>46.79069402069872</v>
+        <v>46.79069402069873</v>
       </c>
       <c r="J14" t="n">
         <v>103.0102241525006</v>
       </c>
       <c r="K14" t="n">
-        <v>154.3856233586785</v>
+        <v>154.3856233586786</v>
       </c>
       <c r="L14" t="n">
-        <v>191.5290174870997</v>
+        <v>191.5290174870998</v>
       </c>
       <c r="M14" t="n">
-        <v>213.1129356452114</v>
+        <v>213.1129356452115</v>
       </c>
       <c r="N14" t="n">
-        <v>216.5613257466655</v>
+        <v>216.5613257466656</v>
       </c>
       <c r="O14" t="n">
-        <v>204.4927189463718</v>
+        <v>204.4927189463719</v>
       </c>
       <c r="P14" t="n">
         <v>174.5298045144673</v>
@@ -32020,16 +32022,16 @@
         <v>131.0646147183121</v>
       </c>
       <c r="R14" t="n">
-        <v>76.23930830108854</v>
+        <v>76.23930830108856</v>
       </c>
       <c r="S14" t="n">
         <v>27.65690785284151</v>
       </c>
       <c r="T14" t="n">
-        <v>5.312917789393906</v>
+        <v>5.312917789393907</v>
       </c>
       <c r="U14" t="n">
-        <v>0.09709501385528548</v>
+        <v>0.0970950138552855</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,22 +32068,22 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.649380154575769</v>
+        <v>0.6493801545757691</v>
       </c>
       <c r="H15" t="n">
-        <v>6.271645177087033</v>
+        <v>6.271645177087034</v>
       </c>
       <c r="I15" t="n">
-        <v>22.35804479570082</v>
+        <v>22.35804479570083</v>
       </c>
       <c r="J15" t="n">
-        <v>61.35218381454668</v>
+        <v>61.35218381454669</v>
       </c>
       <c r="K15" t="n">
         <v>104.8606541711232</v>
       </c>
       <c r="L15" t="n">
-        <v>140.9980901415502</v>
+        <v>140.9980901415503</v>
       </c>
       <c r="M15" t="n">
         <v>164.5381207449218</v>
@@ -32096,7 +32098,7 @@
         <v>124.0031279382449</v>
       </c>
       <c r="Q15" t="n">
-        <v>82.89280709988239</v>
+        <v>82.8928070998824</v>
       </c>
       <c r="R15" t="n">
         <v>40.31853275515171</v>
@@ -32105,10 +32107,10 @@
         <v>12.06195155538763</v>
       </c>
       <c r="T15" t="n">
-        <v>2.61745772831198</v>
+        <v>2.617457728311981</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04272237859051114</v>
+        <v>0.04272237859051115</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5444185075031253</v>
+        <v>0.5444185075031254</v>
       </c>
       <c r="H16" t="n">
-        <v>4.840375457618698</v>
+        <v>4.8403754576187</v>
       </c>
       <c r="I16" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J16" t="n">
-        <v>38.49038848047095</v>
+        <v>38.49038848047096</v>
       </c>
       <c r="K16" t="n">
-        <v>63.2515320535449</v>
+        <v>63.25153205354491</v>
       </c>
       <c r="L16" t="n">
-        <v>80.94018428823738</v>
+        <v>80.94018428823739</v>
       </c>
       <c r="M16" t="n">
-        <v>85.34007568069443</v>
+        <v>85.34007568069444</v>
       </c>
       <c r="N16" t="n">
-        <v>83.31087942545558</v>
+        <v>83.3108794254556</v>
       </c>
       <c r="O16" t="n">
-        <v>76.95108140598722</v>
+        <v>76.95108140598724</v>
       </c>
       <c r="P16" t="n">
-        <v>65.84494385292341</v>
+        <v>65.84494385292342</v>
       </c>
       <c r="Q16" t="n">
-        <v>45.58762611464806</v>
+        <v>45.58762611464807</v>
       </c>
       <c r="R16" t="n">
-        <v>24.47903580100415</v>
+        <v>24.47903580100416</v>
       </c>
       <c r="S16" t="n">
-        <v>9.487729808031734</v>
+        <v>9.487729808031736</v>
       </c>
       <c r="T16" t="n">
         <v>2.32615180478608</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02969555495471595</v>
+        <v>0.02969555495471596</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -33889,7 +33891,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I38" t="n">
-        <v>46.79069402069874</v>
+        <v>46.79069402069873</v>
       </c>
       <c r="J38" t="n">
         <v>103.0102241525006</v>
@@ -33910,22 +33912,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P38" t="n">
-        <v>174.5298045144674</v>
+        <v>174.5298045144673</v>
       </c>
       <c r="Q38" t="n">
-        <v>131.0646147183122</v>
+        <v>131.0646147183121</v>
       </c>
       <c r="R38" t="n">
-        <v>76.23930830108857</v>
+        <v>76.23930830108856</v>
       </c>
       <c r="S38" t="n">
-        <v>27.65690785284152</v>
+        <v>27.65690785284151</v>
       </c>
       <c r="T38" t="n">
-        <v>5.312917789393908</v>
+        <v>5.312917789393907</v>
       </c>
       <c r="U38" t="n">
-        <v>0.09709501385528552</v>
+        <v>0.0970950138552855</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6493801545757693</v>
+        <v>0.6493801545757691</v>
       </c>
       <c r="H39" t="n">
-        <v>6.271645177087036</v>
+        <v>6.271645177087034</v>
       </c>
       <c r="I39" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J39" t="n">
-        <v>61.3521838145467</v>
+        <v>61.35218381454669</v>
       </c>
       <c r="K39" t="n">
         <v>104.8606541711232</v>
@@ -33980,25 +33982,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M39" t="n">
-        <v>164.5381207449219</v>
+        <v>164.5381207449218</v>
       </c>
       <c r="N39" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O39" t="n">
-        <v>154.5040580932972</v>
+        <v>154.5040580932971</v>
       </c>
       <c r="P39" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q39" t="n">
-        <v>82.89280709988242</v>
+        <v>82.8928070998824</v>
       </c>
       <c r="R39" t="n">
-        <v>40.31853275515172</v>
+        <v>40.31853275515171</v>
       </c>
       <c r="S39" t="n">
-        <v>12.06195155538764</v>
+        <v>12.06195155538763</v>
       </c>
       <c r="T39" t="n">
         <v>2.617457728311981</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5444185075031255</v>
+        <v>0.5444185075031254</v>
       </c>
       <c r="H40" t="n">
-        <v>4.840375457618701</v>
+        <v>4.8403754576187</v>
       </c>
       <c r="I40" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J40" t="n">
-        <v>38.49038848047097</v>
+        <v>38.49038848047096</v>
       </c>
       <c r="K40" t="n">
-        <v>63.25153205354492</v>
+        <v>63.25153205354491</v>
       </c>
       <c r="L40" t="n">
-        <v>80.9401842882374</v>
+        <v>80.94018428823739</v>
       </c>
       <c r="M40" t="n">
-        <v>85.34007568069447</v>
+        <v>85.34007568069444</v>
       </c>
       <c r="N40" t="n">
-        <v>83.31087942545561</v>
+        <v>83.3108794254556</v>
       </c>
       <c r="O40" t="n">
-        <v>76.95108140598725</v>
+        <v>76.95108140598724</v>
       </c>
       <c r="P40" t="n">
-        <v>65.84494385292344</v>
+        <v>65.84494385292342</v>
       </c>
       <c r="Q40" t="n">
-        <v>45.58762611464808</v>
+        <v>45.58762611464807</v>
       </c>
       <c r="R40" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S40" t="n">
-        <v>9.487729808031737</v>
+        <v>9.487729808031736</v>
       </c>
       <c r="T40" t="n">
-        <v>2.326151804786081</v>
+        <v>2.32615180478608</v>
       </c>
       <c r="U40" t="n">
-        <v>0.02969555495471597</v>
+        <v>0.02969555495471596</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34778,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>161.1808241620674</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -35024,13 +35026,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35252,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
       <c r="O9" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35644,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>91.06093479788805</v>
+        <v>91.06093479788807</v>
       </c>
       <c r="K14" t="n">
         <v>258.4411848848628</v>
@@ -35653,13 +35655,13 @@
         <v>373.4238170675629</v>
       </c>
       <c r="M14" t="n">
-        <v>432.2802359107711</v>
+        <v>432.2802359107712</v>
       </c>
       <c r="N14" t="n">
         <v>424.4951865620588</v>
       </c>
       <c r="O14" t="n">
-        <v>355.1946887874304</v>
+        <v>355.1946887874305</v>
       </c>
       <c r="P14" t="n">
         <v>265.0955169306804</v>
@@ -35723,13 +35725,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K15" t="n">
-        <v>75.52871390503832</v>
+        <v>14.92312141674913</v>
       </c>
       <c r="L15" t="n">
-        <v>373.2840556651352</v>
+        <v>373.2840556651353</v>
       </c>
       <c r="M15" t="n">
         <v>488.1091505729034</v>
@@ -35805,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>40.98204022766205</v>
+        <v>40.98204022766206</v>
       </c>
       <c r="L16" t="n">
         <v>108.5302095485535</v>
@@ -35820,7 +35822,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P16" t="n">
-        <v>63.1235031178169</v>
+        <v>63.12350311781691</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35963,7 +35965,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>231.4844522093428</v>
+        <v>75.52871390503797</v>
       </c>
       <c r="L18" t="n">
         <v>373.2840556651353</v>
@@ -35972,7 +35974,7 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N18" t="n">
-        <v>513.9261999082067</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O18" t="n">
         <v>405.7701329255822</v>
@@ -35981,7 +35983,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36197,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K21" t="n">
-        <v>228.5170346547479</v>
+        <v>167.911442166459</v>
       </c>
       <c r="L21" t="n">
         <v>373.2840556651353</v>
@@ -36434,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>14.92312141674913</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L24" t="n">
         <v>373.2840556651353</v>
@@ -36452,10 +36454,10 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P24" t="n">
-        <v>308.4914891638518</v>
+        <v>305.5240716092571</v>
       </c>
       <c r="Q24" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36920,13 +36922,13 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N30" t="n">
-        <v>513.9261999082067</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O30" t="n">
         <v>405.7701329255822</v>
       </c>
       <c r="P30" t="n">
-        <v>308.4914891638518</v>
+        <v>305.5240716092571</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37145,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>231.4844522093428</v>
+        <v>228.5170346547479</v>
       </c>
       <c r="L33" t="n">
         <v>373.2840556651353</v>
@@ -37163,7 +37165,7 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P33" t="n">
-        <v>244.9184791209679</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37382,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>14.92312141674913</v>
+        <v>75.52871390503797</v>
       </c>
       <c r="L36" t="n">
         <v>373.2840556651353</v>
@@ -37540,13 +37542,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>91.06093479788808</v>
+        <v>91.06093479788807</v>
       </c>
       <c r="K38" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L38" t="n">
-        <v>373.423817067563</v>
+        <v>373.4238170675629</v>
       </c>
       <c r="M38" t="n">
         <v>432.2802359107712</v>
@@ -37555,13 +37557,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O38" t="n">
-        <v>355.1946887874306</v>
+        <v>355.1946887874305</v>
       </c>
       <c r="P38" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q38" t="n">
-        <v>121.0739155037674</v>
+        <v>121.0739155037673</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>60.60559248828884</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K39" t="n">
-        <v>231.4844522093429</v>
+        <v>167.911442166459</v>
       </c>
       <c r="L39" t="n">
         <v>373.2840556651353</v>
@@ -37631,16 +37633,16 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N39" t="n">
-        <v>300.3322866702078</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O39" t="n">
-        <v>405.7701329255823</v>
+        <v>405.7701329255822</v>
       </c>
       <c r="P39" t="n">
         <v>308.4914891638518</v>
       </c>
       <c r="Q39" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,13 +37703,13 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>40.98204022766207</v>
+        <v>40.98204022766206</v>
       </c>
       <c r="L40" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M40" t="n">
-        <v>124.9239526425351</v>
+        <v>124.923952642535</v>
       </c>
       <c r="N40" t="n">
         <v>127.4430518046842</v>
@@ -37716,7 +37718,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P40" t="n">
-        <v>63.12350311781692</v>
+        <v>63.12350311781691</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37798,7 +37800,7 @@
         <v>265.0955169306804</v>
       </c>
       <c r="Q41" t="n">
-        <v>121.0739155037669</v>
+        <v>121.0739155037674</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37871,13 +37873,13 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O42" t="n">
-        <v>405.7701329255823</v>
+        <v>249.8143946212773</v>
       </c>
       <c r="P42" t="n">
-        <v>305.5240716092566</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>91.06093479788754</v>
+        <v>91.06093479788808</v>
       </c>
       <c r="K44" t="n">
         <v>258.4411848848628</v>
@@ -38032,7 +38034,7 @@
         <v>355.1946887874306</v>
       </c>
       <c r="P44" t="n">
-        <v>265.0955169306804</v>
+        <v>265.0955169306801</v>
       </c>
       <c r="Q44" t="n">
         <v>121.0739155037674</v>
@@ -38096,7 +38098,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>75.52871390503797</v>
+        <v>228.5170346547479</v>
       </c>
       <c r="L45" t="n">
         <v>373.2840556651353</v>
@@ -38114,7 +38116,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q45" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_4_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_4_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1476498.526756609</v>
+        <v>1434674.745087603</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>460545.8926584668</v>
+        <v>460545.8926584667</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8768687.110075582</v>
+        <v>8768687.11007558</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8227768.826876545</v>
+        <v>8227768.826876544</v>
       </c>
     </row>
     <row r="11">
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>241.0142888776591</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -709,13 +709,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>98.74855378848305</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>40.47627913313517</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,31 +737,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>64.56505458062006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -901,25 +901,25 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>80.83011447495538</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>202.2946864288972</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -977,25 +977,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>117.539895612937</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1022,19 +1022,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,16 +1141,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>241.0142888776591</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>36.21593518981622</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>190.3453970742849</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="9">
@@ -1217,22 +1217,22 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>5.642555560200186</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>102.3265338257281</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1259,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1277,10 +1277,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1314,10 +1314,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,10 +1332,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1375,22 +1375,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>199.982868559072</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>414.089049841944</v>
       </c>
       <c r="H11" t="n">
-        <v>97.03190696309366</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,10 +1417,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>73.62980964006113</v>
+        <v>73.62980964006114</v>
       </c>
       <c r="S11" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1448,13 +1448,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>10.73855991483562</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -1499,10 +1499,10 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T12" t="n">
-        <v>53.92880121529013</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U12" t="n">
         <v>225.8986597023843</v>
@@ -1539,19 +1539,19 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>36.48436605884934</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>157.3867970498209</v>
+        <v>50.15718953603334</v>
       </c>
       <c r="I13" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1590,13 +1590,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8759895224488</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>73.62980964006114</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1669,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>284.264468608216</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1694,7 +1694,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>59.83930139749143</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T15" t="n">
-        <v>53.92880121529013</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8986597023843</v>
+        <v>20.46474946062329</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1770,22 +1770,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>91.35315769505117</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>167.4465608509556</v>
       </c>
       <c r="H16" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>93.78175933261987</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>243.224929626414</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>62.90796662656602</v>
       </c>
       <c r="G17" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>73.62980964006114</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1925,16 +1925,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>105.944864848239</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>143.3680272159724</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>59.83930139749142</v>
+        <v>59.83930139749143</v>
       </c>
       <c r="S18" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>197.5472709665096</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>225.6194376234954</v>
+        <v>156.848207690687</v>
       </c>
       <c r="U19" t="n">
-        <v>115.1165353722833</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2086,22 +2086,22 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H20" t="n">
-        <v>125.1946205731314</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>181.3631617334038</v>
@@ -2137,19 +2137,19 @@
         <v>217.7829317747374</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>163.6682482740827</v>
       </c>
     </row>
     <row r="21">
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>68.04005197492994</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -2171,13 +2171,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>136.6941370086349</v>
       </c>
       <c r="H21" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2207,13 +2207,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>59.83930139749142</v>
+        <v>59.83930139749143</v>
       </c>
       <c r="S21" t="n">
         <v>159.6212195484502</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U21" t="n">
         <v>225.8986597023843</v>
@@ -2228,7 +2228,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>160.6753045886504</v>
       </c>
     </row>
     <row r="22">
@@ -2241,13 +2241,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2256,13 +2256,13 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2283,16 +2283,16 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>10.54215419659351</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>92.96858446130959</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2320,10 +2320,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2365,16 +2365,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>1.452325108198911</v>
+        <v>93.90727742760758</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2383,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2408,16 +2408,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>91.6867458199809</v>
       </c>
       <c r="G24" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>61.12808787351286</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2447,10 +2447,10 @@
         <v>59.83930139749142</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U24" t="n">
         <v>225.8986597023843</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>268.7418428881282</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>129.6635172592366</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>124.3385068728348</v>
       </c>
       <c r="G26" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T26" t="n">
-        <v>63.25920448657997</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2620,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2648,10 +2648,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2690,13 +2690,13 @@
         <v>197.5472709665096</v>
       </c>
       <c r="U27" t="n">
-        <v>225.8986597023843</v>
+        <v>172.5161931289813</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>188.4551676688977</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -2718,13 +2718,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>123.320794865197</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2766,19 +2766,19 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>77.50776027739583</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>87.0269793336204</v>
+        <v>383.380086515022</v>
       </c>
     </row>
     <row r="30">
@@ -2879,19 +2879,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>104.262613881998</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>1.450742642164282</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>197.5472709665096</v>
@@ -2955,13 +2955,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>114.7943575370064</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3009,13 +3009,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>16.60419956430074</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0.9588593664683162</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H32" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>24.45301227101324</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3094,10 +3094,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3122,13 +3122,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,16 +3155,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S33" t="n">
         <v>159.6212195484502</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>144.1648043931067</v>
       </c>
       <c r="U33" t="n">
-        <v>120.206241369224</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3189,19 +3189,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>92.96858446131027</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3240,13 +3240,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>135.6806370499356</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>39.21557620022622</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>22.17889820908929</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>217.7829317747374</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3356,16 +3356,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>91.6867458199809</v>
       </c>
       <c r="G36" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3398,13 +3398,13 @@
         <v>159.6212195484502</v>
       </c>
       <c r="T36" t="n">
-        <v>67.26886741877343</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U36" t="n">
         <v>225.8986597023843</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -3435,10 +3435,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3468,19 +3468,19 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>74.54211823523698</v>
+        <v>242.3972323508324</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3508,19 +3508,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>414.089049841944</v>
       </c>
       <c r="H38" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3556,19 +3556,19 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>172.4253255481854</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>306.0329870844812</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3587,22 +3587,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>143.3680272159724</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>105.9637990594094</v>
+        <v>86.86331233301304</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>159.6212195484502</v>
@@ -3672,16 +3672,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>91.35315769505162</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>167.4465608509556</v>
       </c>
       <c r="H40" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>242.3972323508324</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3742,22 +3742,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>152.4069522211156</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H41" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>126.9727812916326</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3830,7 +3830,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>33.6852048571419</v>
       </c>
       <c r="G42" t="n">
         <v>136.6941370086349</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S42" t="n">
         <v>159.6212195484502</v>
@@ -3881,13 +3881,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>108.2159916811118</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>93.98149908494779</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>93.98149908494817</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3985,13 +3985,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>139.4042112361043</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.7829317747374</v>
+        <v>138.0972648865425</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4061,7 +4061,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>94.06259899123576</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -4070,13 +4070,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>67.03858805571424</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,19 +4103,19 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S45" t="n">
         <v>159.6212195484502</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U45" t="n">
         <v>225.8986597023843</v>
       </c>
       <c r="V45" t="n">
-        <v>127.1081688162649</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
@@ -4143,13 +4143,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>162.1988427502686</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T46" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>48.88096232627827</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>761.6974622895962</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="C2" t="n">
-        <v>761.6974622895962</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="D2" t="n">
-        <v>761.6974622895962</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="E2" t="n">
-        <v>518.2486856454962</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="F2" t="n">
-        <v>274.7999090013961</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G2" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H2" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I2" t="n">
         <v>31.35113235729608</v>
@@ -4357,25 +4357,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T2" t="n">
-        <v>802.5825927271064</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U2" t="n">
-        <v>802.5825927271064</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="V2" t="n">
-        <v>802.5825927271064</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="W2" t="n">
-        <v>802.5825927271064</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="X2" t="n">
-        <v>802.5825927271064</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="Y2" t="n">
-        <v>761.6974622895962</v>
+        <v>266.3558523848238</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>456.0377176450116</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C3" t="n">
-        <v>281.5846883638847</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D3" t="n">
-        <v>132.6502787026334</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E3" t="n">
-        <v>132.6502787026334</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F3" t="n">
-        <v>132.6502787026334</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G3" t="n">
-        <v>132.6502787026334</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M3" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N3" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W3" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X3" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y3" t="n">
-        <v>624.2530546650796</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="4">
@@ -4473,16 +4473,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I4" t="n">
         <v>41.77557929797318</v>
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>710.516763498309</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="C5" t="n">
-        <v>467.067986854209</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="D5" t="n">
-        <v>467.067986854209</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="E5" t="n">
-        <v>467.067986854209</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="F5" t="n">
-        <v>262.7299197543128</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4591,28 +4591,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U5" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V5" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W5" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X5" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y5" t="n">
-        <v>710.516763498309</v>
+        <v>591.4512093066566</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>252.1315786412141</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C6" t="n">
-        <v>252.1315786412141</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D6" t="n">
-        <v>252.1315786412141</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E6" t="n">
-        <v>252.1315786412141</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F6" t="n">
-        <v>252.1315786412141</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G6" t="n">
-        <v>133.4044113554191</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4655,43 +4655,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N6" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>851.8101010141643</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>252.1315786412141</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W6" t="n">
-        <v>252.1315786412141</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X6" t="n">
-        <v>252.1315786412141</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y6" t="n">
-        <v>252.1315786412141</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
         <v>19.28114311021272</v>
@@ -4746,31 +4746,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>761.6974622895962</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="C8" t="n">
-        <v>761.6974622895962</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="D8" t="n">
-        <v>761.6974622895962</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="E8" t="n">
-        <v>518.2486856454962</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="F8" t="n">
-        <v>274.7999090013961</v>
+        <v>83.39019569563071</v>
       </c>
       <c r="G8" t="n">
-        <v>31.35113235729608</v>
+        <v>67.93288507428217</v>
       </c>
       <c r="H8" t="n">
         <v>31.35113235729608</v>
@@ -4828,28 +4828,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>953.9655401424092</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U8" t="n">
-        <v>953.9655401424092</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V8" t="n">
-        <v>953.9655401424092</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="W8" t="n">
-        <v>953.9655401424092</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="X8" t="n">
-        <v>953.9655401424092</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="Y8" t="n">
-        <v>761.6974622895962</v>
+        <v>333.7844730889342</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>447.2758270930352</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="C9" t="n">
-        <v>447.2758270930352</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="D9" t="n">
-        <v>298.3414174317839</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="E9" t="n">
-        <v>139.1039624263284</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="F9" t="n">
-        <v>133.4044113554191</v>
+        <v>213.6950400833451</v>
       </c>
       <c r="G9" t="n">
-        <v>133.4044113554191</v>
+        <v>213.6950400833451</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
         <v>20.03527576299844</v>
@@ -4886,49 +4886,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>304.2053859195205</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M9" t="n">
-        <v>304.2053859195205</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T9" t="n">
-        <v>862.8876260635219</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U9" t="n">
-        <v>862.8876260635219</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V9" t="n">
-        <v>862.8876260635219</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="W9" t="n">
-        <v>862.8876260635219</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="X9" t="n">
-        <v>655.0361258579891</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="Y9" t="n">
-        <v>447.2758270930352</v>
+        <v>360.2295980564601</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4980,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2087.181164129222</v>
+        <v>1917.607621721131</v>
       </c>
       <c r="C11" t="n">
-        <v>1718.21864718881</v>
+        <v>1548.645104780719</v>
       </c>
       <c r="D11" t="n">
-        <v>1359.952948582059</v>
+        <v>1346.642207246303</v>
       </c>
       <c r="E11" t="n">
-        <v>974.1646959838151</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="F11" t="n">
-        <v>563.1787911942076</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="G11" t="n">
-        <v>144.9070236770925</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H11" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I11" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J11" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K11" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L11" t="n">
-        <v>762.5916738244549</v>
+        <v>762.5916738244547</v>
       </c>
       <c r="M11" t="n">
         <v>1190.549107376118</v>
       </c>
       <c r="N11" t="n">
-        <v>1610.799342072557</v>
+        <v>1610.799342072556</v>
       </c>
       <c r="O11" t="n">
-        <v>1962.442083972113</v>
+        <v>1962.442083972112</v>
       </c>
       <c r="P11" t="n">
-        <v>2224.886645733487</v>
+        <v>2224.886645733486</v>
       </c>
       <c r="Q11" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R11" t="n">
-        <v>2270.376276991246</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="S11" t="n">
-        <v>2087.181164129222</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="T11" t="n">
-        <v>2087.181164129222</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="U11" t="n">
-        <v>2087.181164129222</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="V11" t="n">
-        <v>2087.181164129222</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="W11" t="n">
-        <v>2087.181164129222</v>
+        <v>1917.607621721131</v>
       </c>
       <c r="X11" t="n">
-        <v>2087.181164129222</v>
+        <v>1917.607621721131</v>
       </c>
       <c r="Y11" t="n">
-        <v>2087.181164129222</v>
+        <v>1917.607621721131</v>
       </c>
     </row>
     <row r="12">
@@ -5096,10 +5096,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.8792202047736</v>
+        <v>850.791840760528</v>
       </c>
       <c r="C12" t="n">
-        <v>814.4261909236466</v>
+        <v>676.338811479401</v>
       </c>
       <c r="D12" t="n">
         <v>665.4917812623953</v>
@@ -5123,13 +5123,13 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K12" t="n">
-        <v>276.0646041288937</v>
+        <v>121.6684232076318</v>
       </c>
       <c r="L12" t="n">
-        <v>645.6158192373775</v>
+        <v>491.2196383161157</v>
       </c>
       <c r="M12" t="n">
-        <v>974.4476973832902</v>
+        <v>974.44769738329</v>
       </c>
       <c r="N12" t="n">
         <v>1486.172378671464</v>
@@ -5147,25 +5147,25 @@
         <v>2344.749822082216</v>
       </c>
       <c r="S12" t="n">
-        <v>2344.749822082216</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T12" t="n">
-        <v>2290.276285501115</v>
+        <v>1983.973569036802</v>
       </c>
       <c r="U12" t="n">
-        <v>2062.095821155272</v>
+        <v>1755.793104690959</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.94371292353</v>
+        <v>1520.640996459216</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.706356195328</v>
+        <v>1266.403639731015</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.854855989795</v>
+        <v>1058.552139525482</v>
       </c>
       <c r="Y12" t="n">
-        <v>1157.094557224842</v>
+        <v>850.791840760528</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>607.7685734363102</v>
+        <v>97.55882425581942</v>
       </c>
       <c r="C13" t="n">
-        <v>607.7685734363102</v>
+        <v>97.55882425581942</v>
       </c>
       <c r="D13" t="n">
-        <v>607.7685734363102</v>
+        <v>97.55882425581942</v>
       </c>
       <c r="E13" t="n">
-        <v>607.7685734363102</v>
+        <v>97.55882425581942</v>
       </c>
       <c r="F13" t="n">
-        <v>570.9156784273715</v>
+        <v>97.55882425581942</v>
       </c>
       <c r="G13" t="n">
-        <v>401.7777381738809</v>
+        <v>97.55882425581942</v>
       </c>
       <c r="H13" t="n">
-        <v>242.8011754972942</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I13" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J13" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="K13" t="n">
-        <v>87.46721626702976</v>
+        <v>87.46721626702974</v>
       </c>
       <c r="L13" t="n">
-        <v>194.9121237200978</v>
+        <v>194.9121237200977</v>
       </c>
       <c r="M13" t="n">
-        <v>318.5868368362075</v>
+        <v>318.5868368362074</v>
       </c>
       <c r="N13" t="n">
-        <v>444.7554581228448</v>
+        <v>444.7554581228447</v>
       </c>
       <c r="O13" t="n">
-        <v>545.2763053496715</v>
+        <v>545.2763053496714</v>
       </c>
       <c r="P13" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="Q13" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="R13" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="S13" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="T13" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="U13" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="V13" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="W13" t="n">
-        <v>607.7685734363102</v>
+        <v>318.3514033993495</v>
       </c>
       <c r="X13" t="n">
-        <v>607.7685734363102</v>
+        <v>318.3514033993495</v>
       </c>
       <c r="Y13" t="n">
-        <v>607.7685734363102</v>
+        <v>97.55882425581942</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1954.610490106405</v>
+        <v>1206.501278074326</v>
       </c>
       <c r="C14" t="n">
-        <v>1585.647973165993</v>
+        <v>1206.501278074326</v>
       </c>
       <c r="D14" t="n">
-        <v>1227.382274559242</v>
+        <v>1206.501278074326</v>
       </c>
       <c r="E14" t="n">
-        <v>841.5940219609981</v>
+        <v>1206.501278074326</v>
       </c>
       <c r="F14" t="n">
-        <v>430.6081171713906</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="G14" t="n">
-        <v>46.89499644164432</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H14" t="n">
         <v>46.89499644164432</v>
@@ -5278,52 +5278,52 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J14" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915532</v>
       </c>
       <c r="K14" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275672</v>
       </c>
       <c r="L14" t="n">
-        <v>762.5916738244549</v>
+        <v>762.5916738244546</v>
       </c>
       <c r="M14" t="n">
         <v>1190.549107376118</v>
       </c>
       <c r="N14" t="n">
-        <v>1610.799342072557</v>
+        <v>1610.799342072556</v>
       </c>
       <c r="O14" t="n">
-        <v>1962.442083972113</v>
+        <v>1962.442083972112</v>
       </c>
       <c r="P14" t="n">
-        <v>2224.886645733487</v>
+        <v>2224.886645733486</v>
       </c>
       <c r="Q14" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R14" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="S14" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="T14" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="U14" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="V14" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="W14" t="n">
-        <v>2344.749822082216</v>
+        <v>1983.240450114259</v>
       </c>
       <c r="X14" t="n">
-        <v>2344.749822082216</v>
+        <v>1983.240450114259</v>
       </c>
       <c r="Y14" t="n">
-        <v>1954.610490106405</v>
+        <v>1593.101118138447</v>
       </c>
     </row>
     <row r="15">
@@ -5333,13 +5333,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.8792202047736</v>
+        <v>829.641765199318</v>
       </c>
       <c r="C15" t="n">
-        <v>814.4261909236466</v>
+        <v>655.188735918191</v>
       </c>
       <c r="D15" t="n">
-        <v>665.4917812623953</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="E15" t="n">
         <v>506.2543262569397</v>
@@ -5357,16 +5357,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J15" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K15" t="n">
-        <v>121.6684232076319</v>
+        <v>121.6684232076318</v>
       </c>
       <c r="L15" t="n">
-        <v>491.2196383161158</v>
+        <v>491.2196383161157</v>
       </c>
       <c r="M15" t="n">
-        <v>974.4476973832902</v>
+        <v>974.44769738329</v>
       </c>
       <c r="N15" t="n">
         <v>1486.172378671464</v>
@@ -5381,28 +5381,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R15" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S15" t="n">
-        <v>2344.749822082216</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T15" t="n">
-        <v>2290.276285501115</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U15" t="n">
-        <v>2062.095821155272</v>
+        <v>1902.858366149817</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.94371292353</v>
+        <v>1667.706257918074</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.706356195328</v>
+        <v>1413.468901189873</v>
       </c>
       <c r="X15" t="n">
-        <v>1364.854855989795</v>
+        <v>1205.61740098434</v>
       </c>
       <c r="Y15" t="n">
-        <v>1157.094557224842</v>
+        <v>997.857102219386</v>
       </c>
     </row>
     <row r="16">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>607.7685734363102</v>
+        <v>513.039523605381</v>
       </c>
       <c r="C16" t="n">
-        <v>607.7685734363102</v>
+        <v>513.039523605381</v>
       </c>
       <c r="D16" t="n">
-        <v>607.7685734363102</v>
+        <v>362.9228841930452</v>
       </c>
       <c r="E16" t="n">
-        <v>607.7685734363102</v>
+        <v>362.9228841930452</v>
       </c>
       <c r="F16" t="n">
-        <v>515.4926565726222</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="G16" t="n">
-        <v>346.3547163191317</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H16" t="n">
-        <v>187.3781536425449</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I16" t="n">
         <v>46.89499644164432</v>
@@ -5439,49 +5439,49 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K16" t="n">
-        <v>87.46721626702976</v>
+        <v>87.46721626702974</v>
       </c>
       <c r="L16" t="n">
-        <v>194.9121237200978</v>
+        <v>194.9121237200977</v>
       </c>
       <c r="M16" t="n">
-        <v>318.5868368362075</v>
+        <v>318.5868368362074</v>
       </c>
       <c r="N16" t="n">
-        <v>444.7554581228448</v>
+        <v>444.7554581228447</v>
       </c>
       <c r="O16" t="n">
-        <v>545.2763053496715</v>
+        <v>545.2763053496714</v>
       </c>
       <c r="P16" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="Q16" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="R16" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="S16" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="T16" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="U16" t="n">
-        <v>607.7685734363102</v>
+        <v>513.039523605381</v>
       </c>
       <c r="V16" t="n">
-        <v>607.7685734363102</v>
+        <v>513.039523605381</v>
       </c>
       <c r="W16" t="n">
-        <v>607.7685734363102</v>
+        <v>513.039523605381</v>
       </c>
       <c r="X16" t="n">
-        <v>607.7685734363102</v>
+        <v>513.039523605381</v>
       </c>
       <c r="Y16" t="n">
-        <v>607.7685734363102</v>
+        <v>513.039523605381</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2099.068074984828</v>
+        <v>110.4383970745393</v>
       </c>
       <c r="C17" t="n">
-        <v>1730.105558044417</v>
+        <v>110.4383970745393</v>
       </c>
       <c r="D17" t="n">
-        <v>1371.839859437666</v>
+        <v>110.4383970745393</v>
       </c>
       <c r="E17" t="n">
-        <v>1371.839859437666</v>
+        <v>110.4383970745393</v>
       </c>
       <c r="F17" t="n">
-        <v>960.8539546480588</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G17" t="n">
-        <v>542.5821871309436</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H17" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I17" t="n">
         <v>46.89499644164432</v>
@@ -5521,10 +5521,10 @@
         <v>392.9020949275675</v>
       </c>
       <c r="L17" t="n">
-        <v>762.5916738244551</v>
+        <v>762.5916738244548</v>
       </c>
       <c r="M17" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N17" t="n">
         <v>1610.799342072557</v>
@@ -5533,34 +5533,34 @@
         <v>1962.442083972113</v>
       </c>
       <c r="P17" t="n">
-        <v>2224.886645733487</v>
+        <v>2224.886645733486</v>
       </c>
       <c r="Q17" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R17" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="S17" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129221</v>
       </c>
       <c r="T17" t="n">
-        <v>2344.749822082216</v>
+        <v>1867.198404760799</v>
       </c>
       <c r="U17" t="n">
-        <v>2344.749822082216</v>
+        <v>1613.411982645667</v>
       </c>
       <c r="V17" t="n">
-        <v>2344.749822082216</v>
+        <v>1613.411982645667</v>
       </c>
       <c r="W17" t="n">
-        <v>2344.749822082216</v>
+        <v>1260.643327375553</v>
       </c>
       <c r="X17" t="n">
-        <v>2344.749822082216</v>
+        <v>887.1775691144728</v>
       </c>
       <c r="Y17" t="n">
-        <v>2344.749822082216</v>
+        <v>497.0382371386611</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>622.1327649551154</v>
+        <v>783.3663200545598</v>
       </c>
       <c r="C18" t="n">
-        <v>447.6797356739884</v>
+        <v>676.3513050563386</v>
       </c>
       <c r="D18" t="n">
-        <v>298.7453260127371</v>
+        <v>527.4168953950873</v>
       </c>
       <c r="E18" t="n">
-        <v>153.9291369056942</v>
+        <v>368.1794403896317</v>
       </c>
       <c r="F18" t="n">
-        <v>153.9291369056942</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="G18" t="n">
-        <v>153.9291369056942</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H18" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I18" t="n">
         <v>46.89499644164432</v>
@@ -5597,22 +5597,22 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K18" t="n">
-        <v>121.6684232076319</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L18" t="n">
-        <v>491.2196383161158</v>
+        <v>645.6158192373775</v>
       </c>
       <c r="M18" t="n">
-        <v>974.4476973832902</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N18" t="n">
-        <v>1486.172378671464</v>
+        <v>1640.568559592725</v>
       </c>
       <c r="O18" t="n">
-        <v>1887.88481026779</v>
+        <v>2042.280991189052</v>
       </c>
       <c r="P18" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q18" t="n">
         <v>2344.749822082216</v>
@@ -5621,25 +5621,25 @@
         <v>2284.306083296871</v>
       </c>
       <c r="S18" t="n">
-        <v>2123.072528197426</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="T18" t="n">
-        <v>1923.529830251457</v>
+        <v>2084.763385350901</v>
       </c>
       <c r="U18" t="n">
-        <v>1695.349365905614</v>
+        <v>1856.582921005059</v>
       </c>
       <c r="V18" t="n">
-        <v>1460.197257673872</v>
+        <v>1621.430812773316</v>
       </c>
       <c r="W18" t="n">
-        <v>1205.95990094567</v>
+        <v>1367.193456045115</v>
       </c>
       <c r="X18" t="n">
-        <v>998.1084007401373</v>
+        <v>1159.341955839582</v>
       </c>
       <c r="Y18" t="n">
-        <v>790.3481019751835</v>
+        <v>951.5816570746279</v>
       </c>
     </row>
     <row r="19">
@@ -5676,49 +5676,49 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K19" t="n">
-        <v>87.46721626702976</v>
+        <v>87.46721626702974</v>
       </c>
       <c r="L19" t="n">
-        <v>194.9121237200978</v>
+        <v>194.9121237200977</v>
       </c>
       <c r="M19" t="n">
-        <v>318.5868368362075</v>
+        <v>318.5868368362074</v>
       </c>
       <c r="N19" t="n">
-        <v>444.7554581228448</v>
+        <v>444.7554581228447</v>
       </c>
       <c r="O19" t="n">
-        <v>545.2763053496715</v>
+        <v>545.2763053496714</v>
       </c>
       <c r="P19" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="Q19" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="R19" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="S19" t="n">
-        <v>391.0727469424309</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="T19" t="n">
-        <v>163.1743251005163</v>
+        <v>449.3360404154141</v>
       </c>
       <c r="U19" t="n">
-        <v>46.89499644164432</v>
+        <v>449.3360404154141</v>
       </c>
       <c r="V19" t="n">
-        <v>46.89499644164432</v>
+        <v>449.3360404154141</v>
       </c>
       <c r="W19" t="n">
-        <v>46.89499644164432</v>
+        <v>449.3360404154141</v>
       </c>
       <c r="X19" t="n">
-        <v>46.89499644164432</v>
+        <v>449.3360404154141</v>
       </c>
       <c r="Y19" t="n">
-        <v>46.89499644164432</v>
+        <v>228.543461271884</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1493.73264649972</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="C20" t="n">
-        <v>1493.73264649972</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="D20" t="n">
-        <v>1135.46694789297</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="E20" t="n">
-        <v>749.6786952947252</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="F20" t="n">
-        <v>338.6927905051177</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="G20" t="n">
-        <v>338.6927905051177</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H20" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I20" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J20" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K20" t="n">
-        <v>392.9020949275676</v>
+        <v>392.902094927568</v>
       </c>
       <c r="L20" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244553</v>
       </c>
       <c r="M20" t="n">
         <v>1190.549107376119</v>
@@ -5776,28 +5776,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R20" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S20" t="n">
-        <v>2087.181164129222</v>
+        <v>2161.554709220192</v>
       </c>
       <c r="T20" t="n">
-        <v>1867.1984047608</v>
+        <v>1941.571949851771</v>
       </c>
       <c r="U20" t="n">
-        <v>1867.1984047608</v>
+        <v>1687.785527736638</v>
       </c>
       <c r="V20" t="n">
-        <v>1867.1984047608</v>
+        <v>1356.722640393067</v>
       </c>
       <c r="W20" t="n">
-        <v>1867.1984047608</v>
+        <v>1003.953985122953</v>
       </c>
       <c r="X20" t="n">
-        <v>1493.73264649972</v>
+        <v>630.4882268618733</v>
       </c>
       <c r="Y20" t="n">
-        <v>1493.73264649972</v>
+        <v>465.1667639587595</v>
       </c>
     </row>
     <row r="21">
@@ -5807,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>921.1634746939509</v>
+        <v>667.5947762567861</v>
       </c>
       <c r="C21" t="n">
-        <v>746.7104454128239</v>
+        <v>493.141746975659</v>
       </c>
       <c r="D21" t="n">
-        <v>597.7760357515726</v>
+        <v>344.2073373144078</v>
       </c>
       <c r="E21" t="n">
-        <v>438.5385807461172</v>
+        <v>184.9698823089523</v>
       </c>
       <c r="F21" t="n">
-        <v>292.0040227730022</v>
+        <v>184.9698823089523</v>
       </c>
       <c r="G21" t="n">
-        <v>153.9291369056942</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H21" t="n">
         <v>46.89499644164432</v>
@@ -5831,19 +5831,19 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J21" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K21" t="n">
-        <v>273.1268607498447</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L21" t="n">
-        <v>642.6780758583286</v>
+        <v>645.6158192373775</v>
       </c>
       <c r="M21" t="n">
-        <v>1125.906134925503</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N21" t="n">
-        <v>1637.630816213677</v>
+        <v>1640.568559592725</v>
       </c>
       <c r="O21" t="n">
         <v>2039.343247810003</v>
@@ -5861,22 +5861,22 @@
         <v>2123.072528197426</v>
       </c>
       <c r="T21" t="n">
-        <v>2123.072528197426</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U21" t="n">
-        <v>1894.892063851584</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V21" t="n">
-        <v>1659.739955619841</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W21" t="n">
-        <v>1405.50259889164</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X21" t="n">
-        <v>1197.651098686107</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y21" t="n">
-        <v>989.8907999211528</v>
+        <v>835.8101132768541</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2138.758986819787</v>
+        <v>513.86091236428</v>
       </c>
       <c r="C22" t="n">
-        <v>2138.758986819787</v>
+        <v>344.9247294363731</v>
       </c>
       <c r="D22" t="n">
-        <v>2138.758986819787</v>
+        <v>194.8080900240374</v>
       </c>
       <c r="E22" t="n">
-        <v>2138.758986819787</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F22" t="n">
-        <v>2138.758986819787</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G22" t="n">
-        <v>2138.758986819787</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H22" t="n">
-        <v>1979.7824241432</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I22" t="n">
-        <v>1839.299266942299</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J22" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K22" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702973</v>
       </c>
       <c r="L22" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200977</v>
       </c>
       <c r="M22" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362073</v>
       </c>
       <c r="N22" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228446</v>
       </c>
       <c r="O22" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496712</v>
       </c>
       <c r="P22" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363099</v>
       </c>
       <c r="Q22" t="n">
-        <v>2303.765562347826</v>
+        <v>607.7685734363099</v>
       </c>
       <c r="R22" t="n">
-        <v>2149.407627422406</v>
+        <v>607.7685734363099</v>
       </c>
       <c r="S22" t="n">
-        <v>2138.758986819787</v>
+        <v>607.7685734363099</v>
       </c>
       <c r="T22" t="n">
-        <v>2138.758986819787</v>
+        <v>513.86091236428</v>
       </c>
       <c r="U22" t="n">
-        <v>2138.758986819787</v>
+        <v>513.86091236428</v>
       </c>
       <c r="V22" t="n">
-        <v>2138.758986819787</v>
+        <v>513.86091236428</v>
       </c>
       <c r="W22" t="n">
-        <v>2138.758986819787</v>
+        <v>513.86091236428</v>
       </c>
       <c r="X22" t="n">
-        <v>2138.758986819787</v>
+        <v>513.86091236428</v>
       </c>
       <c r="Y22" t="n">
-        <v>2138.758986819787</v>
+        <v>513.86091236428</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>405.1606950483948</v>
+        <v>415.857513382056</v>
       </c>
       <c r="C23" t="n">
-        <v>405.1606950483948</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D23" t="n">
         <v>46.89499644164432</v>
@@ -5989,16 +5989,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J23" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K23" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L23" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244549</v>
       </c>
       <c r="M23" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N23" t="n">
         <v>1610.799342072557</v>
@@ -6013,28 +6013,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R23" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S23" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T23" t="n">
-        <v>1867.1984047608</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U23" t="n">
-        <v>1865.731409702013</v>
+        <v>2249.893986296754</v>
       </c>
       <c r="V23" t="n">
-        <v>1534.668522358442</v>
+        <v>1918.831098953184</v>
       </c>
       <c r="W23" t="n">
-        <v>1181.899867088328</v>
+        <v>1566.062443683069</v>
       </c>
       <c r="X23" t="n">
-        <v>1181.899867088328</v>
+        <v>1192.59668542199</v>
       </c>
       <c r="Y23" t="n">
-        <v>791.7605351125167</v>
+        <v>802.4573534461779</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>982.9090180005296</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C24" t="n">
-        <v>808.4559887194026</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D24" t="n">
-        <v>659.5215790581514</v>
+        <v>298.7453260127371</v>
       </c>
       <c r="E24" t="n">
-        <v>500.2841240526959</v>
+        <v>139.5078710072816</v>
       </c>
       <c r="F24" t="n">
-        <v>353.7495660795809</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G24" t="n">
-        <v>215.6746802122729</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H24" t="n">
-        <v>108.640539748223</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I24" t="n">
         <v>46.89499644164432</v>
@@ -6071,19 +6071,19 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K24" t="n">
-        <v>276.0646041288937</v>
+        <v>273.1268607498447</v>
       </c>
       <c r="L24" t="n">
-        <v>645.6158192373775</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M24" t="n">
-        <v>1128.843878304552</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N24" t="n">
-        <v>1640.568559592725</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O24" t="n">
-        <v>2042.280991189052</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P24" t="n">
         <v>2344.749822082216</v>
@@ -6095,25 +6095,25 @@
         <v>2284.306083296871</v>
       </c>
       <c r="S24" t="n">
-        <v>2284.306083296871</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T24" t="n">
-        <v>2284.306083296871</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U24" t="n">
-        <v>2056.125618951029</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V24" t="n">
-        <v>1820.973510719286</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W24" t="n">
-        <v>1566.736153991084</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X24" t="n">
-        <v>1358.884653785552</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y24" t="n">
-        <v>1151.124355020598</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="25">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>187.3781536425449</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C25" t="n">
-        <v>187.3781536425449</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D25" t="n">
-        <v>187.3781536425449</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E25" t="n">
-        <v>187.3781536425449</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F25" t="n">
-        <v>187.3781536425449</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G25" t="n">
-        <v>187.3781536425449</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H25" t="n">
-        <v>187.3781536425449</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I25" t="n">
         <v>46.89499644164432</v>
@@ -6180,19 +6180,19 @@
         <v>607.7685734363102</v>
       </c>
       <c r="U25" t="n">
-        <v>607.7685734363102</v>
+        <v>336.3121664786049</v>
       </c>
       <c r="V25" t="n">
-        <v>607.7685734363102</v>
+        <v>336.3121664786049</v>
       </c>
       <c r="W25" t="n">
-        <v>318.3514033993496</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X25" t="n">
-        <v>318.3514033993496</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y25" t="n">
-        <v>187.3781536425449</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1164.47789022513</v>
+        <v>558.2777004265904</v>
       </c>
       <c r="C26" t="n">
-        <v>795.5153732847182</v>
+        <v>558.2777004265904</v>
       </c>
       <c r="D26" t="n">
-        <v>795.5153732847182</v>
+        <v>558.2777004265904</v>
       </c>
       <c r="E26" t="n">
-        <v>795.5153732847182</v>
+        <v>172.4894478283462</v>
       </c>
       <c r="F26" t="n">
-        <v>795.5153732847182</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G26" t="n">
-        <v>377.243605767603</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H26" t="n">
         <v>46.89499644164432</v>
@@ -6226,10 +6226,10 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J26" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K26" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L26" t="n">
         <v>762.5916738244549</v>
@@ -6253,25 +6253,25 @@
         <v>2344.749822082216</v>
       </c>
       <c r="S26" t="n">
-        <v>2344.749822082216</v>
+        <v>2161.554709220192</v>
       </c>
       <c r="T26" t="n">
-        <v>2280.851635732135</v>
+        <v>1941.571949851771</v>
       </c>
       <c r="U26" t="n">
-        <v>2280.851635732135</v>
+        <v>1687.785527736638</v>
       </c>
       <c r="V26" t="n">
-        <v>2280.851635732135</v>
+        <v>1687.785527736638</v>
       </c>
       <c r="W26" t="n">
-        <v>1928.082980462021</v>
+        <v>1335.016872466524</v>
       </c>
       <c r="X26" t="n">
-        <v>1554.617222200942</v>
+        <v>1335.016872466524</v>
       </c>
       <c r="Y26" t="n">
-        <v>1164.47789022513</v>
+        <v>944.8775404907121</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>921.1634746939509</v>
+        <v>676.0544483625931</v>
       </c>
       <c r="C27" t="n">
-        <v>746.7104454128239</v>
+        <v>501.6014190814661</v>
       </c>
       <c r="D27" t="n">
-        <v>597.7760357515726</v>
+        <v>352.6670094202149</v>
       </c>
       <c r="E27" t="n">
-        <v>438.5385807461172</v>
+        <v>193.4295544147594</v>
       </c>
       <c r="F27" t="n">
-        <v>292.0040227730022</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G27" t="n">
-        <v>153.9291369056942</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H27" t="n">
         <v>46.89499644164432</v>
@@ -6305,25 +6305,25 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J27" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K27" t="n">
-        <v>273.1268607498447</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L27" t="n">
-        <v>642.6780758583286</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M27" t="n">
-        <v>1125.906134925503</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N27" t="n">
-        <v>1637.630816213677</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O27" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P27" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q27" t="n">
         <v>2344.749822082216</v>
@@ -6338,19 +6338,19 @@
         <v>1923.529830251457</v>
       </c>
       <c r="U27" t="n">
-        <v>1695.349365905614</v>
+        <v>1749.271049313092</v>
       </c>
       <c r="V27" t="n">
-        <v>1695.349365905614</v>
+        <v>1514.118941081349</v>
       </c>
       <c r="W27" t="n">
-        <v>1504.990610684506</v>
+        <v>1259.881584353148</v>
       </c>
       <c r="X27" t="n">
-        <v>1297.139110478973</v>
+        <v>1052.030084147615</v>
       </c>
       <c r="Y27" t="n">
-        <v>1089.378811714019</v>
+        <v>844.2697853826612</v>
       </c>
     </row>
     <row r="28">
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>318.3514033993496</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C28" t="n">
-        <v>318.3514033993496</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D28" t="n">
-        <v>193.7849439395547</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E28" t="n">
-        <v>193.7849439395547</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F28" t="n">
         <v>46.89499644164432</v>
@@ -6414,22 +6414,22 @@
         <v>607.7685734363102</v>
       </c>
       <c r="T28" t="n">
-        <v>607.7685734363102</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="U28" t="n">
-        <v>607.7685734363102</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="V28" t="n">
-        <v>607.7685734363102</v>
+        <v>125.1856633885088</v>
       </c>
       <c r="W28" t="n">
-        <v>318.3514033993496</v>
+        <v>125.1856633885088</v>
       </c>
       <c r="X28" t="n">
-        <v>318.3514033993496</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y28" t="n">
-        <v>318.3514033993496</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>542.5821871309436</v>
+        <v>1570.897369376658</v>
       </c>
       <c r="C29" t="n">
-        <v>542.5821871309436</v>
+        <v>1201.934852436247</v>
       </c>
       <c r="D29" t="n">
-        <v>542.5821871309436</v>
+        <v>843.6691538294961</v>
       </c>
       <c r="E29" t="n">
-        <v>542.5821871309436</v>
+        <v>457.8809012312519</v>
       </c>
       <c r="F29" t="n">
-        <v>542.5821871309436</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G29" t="n">
-        <v>542.5821871309436</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H29" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I29" t="n">
         <v>46.89499644164432</v>
@@ -6490,25 +6490,25 @@
         <v>2344.749822082216</v>
       </c>
       <c r="S29" t="n">
-        <v>2161.554709220192</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T29" t="n">
-        <v>1941.571949851771</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U29" t="n">
-        <v>1687.785527736638</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V29" t="n">
-        <v>1356.722640393067</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W29" t="n">
-        <v>1003.953985122953</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="X29" t="n">
-        <v>630.4882268618733</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Y29" t="n">
-        <v>542.5821871309436</v>
+        <v>1957.49720944078</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>622.1327649551154</v>
+        <v>843.8100588399052</v>
       </c>
       <c r="C30" t="n">
-        <v>447.6797356739884</v>
+        <v>669.3570295587782</v>
       </c>
       <c r="D30" t="n">
-        <v>298.7453260127371</v>
+        <v>520.4226198975269</v>
       </c>
       <c r="E30" t="n">
-        <v>193.4295544147594</v>
+        <v>361.1851648920714</v>
       </c>
       <c r="F30" t="n">
-        <v>46.89499644164432</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G30" t="n">
-        <v>46.89499644164432</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H30" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I30" t="n">
         <v>46.89499644164432</v>
@@ -6545,19 +6545,19 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K30" t="n">
-        <v>276.0646041288937</v>
+        <v>273.1268607498447</v>
       </c>
       <c r="L30" t="n">
-        <v>645.6158192373775</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M30" t="n">
-        <v>1128.843878304552</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N30" t="n">
-        <v>1640.568559592725</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O30" t="n">
-        <v>2042.280991189052</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P30" t="n">
         <v>2344.749822082216</v>
@@ -6566,28 +6566,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R30" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S30" t="n">
-        <v>2123.072528197426</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T30" t="n">
-        <v>1923.529830251457</v>
+        <v>2145.207124136247</v>
       </c>
       <c r="U30" t="n">
-        <v>1695.349365905614</v>
+        <v>1917.026659790404</v>
       </c>
       <c r="V30" t="n">
-        <v>1460.197257673872</v>
+        <v>1681.874551558662</v>
       </c>
       <c r="W30" t="n">
-        <v>1205.95990094567</v>
+        <v>1427.63719483046</v>
       </c>
       <c r="X30" t="n">
-        <v>998.1084007401373</v>
+        <v>1219.785694624927</v>
       </c>
       <c r="Y30" t="n">
-        <v>790.3481019751835</v>
+        <v>1012.025395859973</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1783.87624508755</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="C31" t="n">
-        <v>1783.87624508755</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="D31" t="n">
-        <v>1783.87624508755</v>
+        <v>457.6519340239745</v>
       </c>
       <c r="E31" t="n">
-        <v>1783.87624508755</v>
+        <v>309.7388404415814</v>
       </c>
       <c r="F31" t="n">
-        <v>1783.87624508755</v>
+        <v>162.848892943671</v>
       </c>
       <c r="G31" t="n">
-        <v>1783.87624508755</v>
+        <v>162.848892943671</v>
       </c>
       <c r="H31" t="n">
-        <v>1783.87624508755</v>
+        <v>162.848892943671</v>
       </c>
       <c r="I31" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J31" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K31" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L31" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M31" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N31" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O31" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P31" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q31" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R31" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S31" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T31" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U31" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V31" t="n">
-        <v>2090.06533387633</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W31" t="n">
-        <v>1800.648163839369</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="X31" t="n">
-        <v>1783.87624508755</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Y31" t="n">
-        <v>1783.87624508755</v>
+        <v>607.7685734363102</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1270.77894749272</v>
+        <v>876.152668748367</v>
       </c>
       <c r="C32" t="n">
-        <v>901.8164305523085</v>
+        <v>876.152668748367</v>
       </c>
       <c r="D32" t="n">
-        <v>543.550731945558</v>
+        <v>876.152668748367</v>
       </c>
       <c r="E32" t="n">
-        <v>543.550731945558</v>
+        <v>876.152668748367</v>
       </c>
       <c r="F32" t="n">
-        <v>543.550731945558</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="G32" t="n">
-        <v>542.5821871309436</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H32" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I32" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J32" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K32" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L32" t="n">
         <v>762.591673824455</v>
@@ -6721,31 +6721,31 @@
         <v>2224.886645733487</v>
       </c>
       <c r="Q32" t="n">
-        <v>2344.749822082217</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R32" t="n">
-        <v>2344.749822082217</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S32" t="n">
-        <v>2344.749822082217</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T32" t="n">
-        <v>2344.749822082217</v>
+        <v>2320.049809687253</v>
       </c>
       <c r="U32" t="n">
-        <v>2344.749822082217</v>
+        <v>2320.049809687253</v>
       </c>
       <c r="V32" t="n">
-        <v>2013.686934738646</v>
+        <v>1988.986922343683</v>
       </c>
       <c r="W32" t="n">
-        <v>1660.918279468532</v>
+        <v>1636.218267073569</v>
       </c>
       <c r="X32" t="n">
-        <v>1660.918279468532</v>
+        <v>1262.752508812489</v>
       </c>
       <c r="Y32" t="n">
-        <v>1270.77894749272</v>
+        <v>1262.752508812489</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.8792202047736</v>
+        <v>676.0544483625931</v>
       </c>
       <c r="C33" t="n">
-        <v>814.4261909236466</v>
+        <v>501.6014190814661</v>
       </c>
       <c r="D33" t="n">
-        <v>665.4917812623953</v>
+        <v>352.6670094202149</v>
       </c>
       <c r="E33" t="n">
-        <v>506.2543262569397</v>
+        <v>193.4295544147594</v>
       </c>
       <c r="F33" t="n">
-        <v>359.7197682838247</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G33" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H33" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I33" t="n">
         <v>46.89499644164432</v>
@@ -6782,19 +6782,19 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K33" t="n">
-        <v>273.1268607498447</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L33" t="n">
-        <v>642.6780758583286</v>
+        <v>645.6158192373775</v>
       </c>
       <c r="M33" t="n">
-        <v>1125.906134925503</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N33" t="n">
-        <v>1637.630816213677</v>
+        <v>1640.568559592725</v>
       </c>
       <c r="O33" t="n">
-        <v>2039.343247810003</v>
+        <v>2042.280991189052</v>
       </c>
       <c r="P33" t="n">
         <v>2344.749822082216</v>
@@ -6803,28 +6803,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R33" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S33" t="n">
-        <v>2183.516266982771</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T33" t="n">
-        <v>2183.516266982771</v>
+        <v>1977.451513658935</v>
       </c>
       <c r="U33" t="n">
-        <v>2062.095821155272</v>
+        <v>1749.271049313092</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.94371292353</v>
+        <v>1514.118941081349</v>
       </c>
       <c r="W33" t="n">
-        <v>1572.706356195328</v>
+        <v>1259.881584353148</v>
       </c>
       <c r="X33" t="n">
-        <v>1364.854855989795</v>
+        <v>1052.030084147615</v>
       </c>
       <c r="Y33" t="n">
-        <v>1157.094557224842</v>
+        <v>844.2697853826612</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2344.749822082216</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="C34" t="n">
-        <v>2175.813639154309</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="D34" t="n">
-        <v>2025.696999741974</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="E34" t="n">
-        <v>1877.783906159581</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="F34" t="n">
-        <v>1783.87624508755</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="G34" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H34" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I34" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J34" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K34" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L34" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M34" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N34" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O34" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P34" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q34" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R34" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S34" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T34" t="n">
-        <v>2344.749822082216</v>
+        <v>470.7174249010218</v>
       </c>
       <c r="U34" t="n">
-        <v>2344.749822082216</v>
+        <v>470.7174249010218</v>
       </c>
       <c r="V34" t="n">
-        <v>2344.749822082216</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="W34" t="n">
-        <v>2344.749822082216</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="X34" t="n">
-        <v>2344.749822082216</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="Y34" t="n">
-        <v>2344.749822082216</v>
+        <v>216.0329366951349</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1570.897369376658</v>
+        <v>983.2568821319874</v>
       </c>
       <c r="C35" t="n">
-        <v>1201.934852436247</v>
+        <v>983.2568821319874</v>
       </c>
       <c r="D35" t="n">
-        <v>843.6691538294961</v>
+        <v>983.2568821319874</v>
       </c>
       <c r="E35" t="n">
-        <v>457.8809012312519</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="F35" t="n">
-        <v>46.89499644164432</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="G35" t="n">
-        <v>46.89499644164432</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H35" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I35" t="n">
         <v>46.89499644164432</v>
@@ -6943,10 +6943,10 @@
         <v>392.9020949275676</v>
       </c>
       <c r="L35" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244549</v>
       </c>
       <c r="M35" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N35" t="n">
         <v>1610.799342072557</v>
@@ -6970,19 +6970,19 @@
         <v>1941.571949851771</v>
       </c>
       <c r="U35" t="n">
-        <v>1941.571949851771</v>
+        <v>1687.785527736638</v>
       </c>
       <c r="V35" t="n">
-        <v>1610.5090625082</v>
+        <v>1356.722640393067</v>
       </c>
       <c r="W35" t="n">
-        <v>1610.5090625082</v>
+        <v>1356.722640393067</v>
       </c>
       <c r="X35" t="n">
-        <v>1610.5090625082</v>
+        <v>983.2568821319874</v>
       </c>
       <c r="Y35" t="n">
-        <v>1610.5090625082</v>
+        <v>983.2568821319874</v>
       </c>
     </row>
     <row r="36">
@@ -6992,31 +6992,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.8792202047736</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C36" t="n">
-        <v>814.4261909236466</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D36" t="n">
-        <v>665.4917812623953</v>
+        <v>298.7453260127371</v>
       </c>
       <c r="E36" t="n">
-        <v>506.2543262569397</v>
+        <v>139.5078710072816</v>
       </c>
       <c r="F36" t="n">
-        <v>359.7197682838247</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G36" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H36" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I36" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J36" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K36" t="n">
         <v>121.6684232076319</v>
@@ -7046,22 +7046,22 @@
         <v>2123.072528197426</v>
       </c>
       <c r="T36" t="n">
-        <v>2055.124177269372</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U36" t="n">
-        <v>1826.94371292353</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.94371292353</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W36" t="n">
-        <v>1572.706356195328</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X36" t="n">
-        <v>1364.854855989795</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y36" t="n">
-        <v>1157.094557224842</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="37">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.89499644164432</v>
+        <v>362.9228841930452</v>
       </c>
       <c r="C37" t="n">
-        <v>46.89499644164432</v>
+        <v>362.9228841930452</v>
       </c>
       <c r="D37" t="n">
-        <v>46.89499644164432</v>
+        <v>362.9228841930452</v>
       </c>
       <c r="E37" t="n">
-        <v>46.89499644164432</v>
+        <v>362.9228841930452</v>
       </c>
       <c r="F37" t="n">
-        <v>46.89499644164432</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="G37" t="n">
         <v>46.89499644164432</v>
@@ -7116,31 +7116,31 @@
         <v>607.7685734363102</v>
       </c>
       <c r="Q37" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R37" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S37" t="n">
-        <v>350.0884872080407</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T37" t="n">
-        <v>122.1900653661261</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U37" t="n">
-        <v>46.89499644164432</v>
+        <v>362.9228841930452</v>
       </c>
       <c r="V37" t="n">
-        <v>46.89499644164432</v>
+        <v>362.9228841930452</v>
       </c>
       <c r="W37" t="n">
-        <v>46.89499644164432</v>
+        <v>362.9228841930452</v>
       </c>
       <c r="X37" t="n">
-        <v>46.89499644164432</v>
+        <v>362.9228841930452</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.89499644164432</v>
+        <v>362.9228841930452</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1961.252047612982</v>
+        <v>1192.394979505922</v>
       </c>
       <c r="C38" t="n">
-        <v>1592.28953067257</v>
+        <v>823.4324625655099</v>
       </c>
       <c r="D38" t="n">
-        <v>1592.28953067257</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="E38" t="n">
-        <v>1206.501278074326</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="F38" t="n">
-        <v>795.5153732847182</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="G38" t="n">
-        <v>377.243605767603</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H38" t="n">
         <v>46.89499644164432</v>
@@ -7174,16 +7174,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J38" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K38" t="n">
         <v>392.9020949275675</v>
       </c>
       <c r="L38" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244549</v>
       </c>
       <c r="M38" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N38" t="n">
         <v>1610.799342072557</v>
@@ -7204,22 +7204,22 @@
         <v>2270.376276991246</v>
       </c>
       <c r="T38" t="n">
-        <v>2270.376276991246</v>
+        <v>2050.393517622824</v>
       </c>
       <c r="U38" t="n">
-        <v>2270.376276991246</v>
+        <v>1876.226522119606</v>
       </c>
       <c r="V38" t="n">
-        <v>2270.376276991246</v>
+        <v>1545.163634776036</v>
       </c>
       <c r="W38" t="n">
-        <v>2270.376276991246</v>
+        <v>1192.394979505922</v>
       </c>
       <c r="X38" t="n">
-        <v>1961.252047612982</v>
+        <v>1192.394979505922</v>
       </c>
       <c r="Y38" t="n">
-        <v>1961.252047612982</v>
+        <v>1192.394979505922</v>
       </c>
     </row>
     <row r="39">
@@ -7229,46 +7229,46 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>622.1327649551154</v>
+        <v>682.5765037404603</v>
       </c>
       <c r="C39" t="n">
-        <v>447.6797356739884</v>
+        <v>508.1234744593334</v>
       </c>
       <c r="D39" t="n">
-        <v>298.7453260127371</v>
+        <v>508.1234744593334</v>
       </c>
       <c r="E39" t="n">
-        <v>153.9291369056942</v>
+        <v>348.8860194538779</v>
       </c>
       <c r="F39" t="n">
-        <v>153.9291369056942</v>
+        <v>202.3514614807628</v>
       </c>
       <c r="G39" t="n">
-        <v>153.9291369056942</v>
+        <v>202.3514614807628</v>
       </c>
       <c r="H39" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I39" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J39" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K39" t="n">
-        <v>273.1268607498447</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L39" t="n">
-        <v>642.6780758583286</v>
+        <v>645.6158192373775</v>
       </c>
       <c r="M39" t="n">
-        <v>1125.906134925503</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N39" t="n">
-        <v>1637.630816213677</v>
+        <v>1640.568559592725</v>
       </c>
       <c r="O39" t="n">
-        <v>2039.343247810003</v>
+        <v>2042.280991189052</v>
       </c>
       <c r="P39" t="n">
         <v>2344.749822082216</v>
@@ -7277,28 +7277,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R39" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S39" t="n">
-        <v>2123.072528197426</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T39" t="n">
-        <v>1923.529830251457</v>
+        <v>1983.973569036802</v>
       </c>
       <c r="U39" t="n">
-        <v>1695.349365905614</v>
+        <v>1755.793104690959</v>
       </c>
       <c r="V39" t="n">
-        <v>1460.197257673872</v>
+        <v>1520.640996459217</v>
       </c>
       <c r="W39" t="n">
-        <v>1205.95990094567</v>
+        <v>1266.403639731015</v>
       </c>
       <c r="X39" t="n">
-        <v>998.1084007401373</v>
+        <v>1058.552139525482</v>
       </c>
       <c r="Y39" t="n">
-        <v>790.3481019751835</v>
+        <v>850.7918407605284</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2344.749822082216</v>
+        <v>362.9228841930452</v>
       </c>
       <c r="C40" t="n">
-        <v>2344.749822082216</v>
+        <v>362.9228841930452</v>
       </c>
       <c r="D40" t="n">
-        <v>2344.749822082216</v>
+        <v>362.9228841930452</v>
       </c>
       <c r="E40" t="n">
-        <v>2344.749822082216</v>
+        <v>362.9228841930452</v>
       </c>
       <c r="F40" t="n">
-        <v>2252.473905218528</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="G40" t="n">
-        <v>2083.335964965037</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H40" t="n">
-        <v>1924.359402288451</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I40" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J40" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K40" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L40" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M40" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N40" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O40" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P40" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q40" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R40" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S40" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T40" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U40" t="n">
-        <v>2344.749822082216</v>
+        <v>362.9228841930452</v>
       </c>
       <c r="V40" t="n">
-        <v>2344.749822082216</v>
+        <v>362.9228841930452</v>
       </c>
       <c r="W40" t="n">
-        <v>2344.749822082216</v>
+        <v>362.9228841930452</v>
       </c>
       <c r="X40" t="n">
-        <v>2344.749822082216</v>
+        <v>362.9228841930452</v>
       </c>
       <c r="Y40" t="n">
-        <v>2344.749822082216</v>
+        <v>362.9228841930452</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1490.260073913009</v>
+        <v>1030.099085133332</v>
       </c>
       <c r="C41" t="n">
-        <v>1121.297556972598</v>
+        <v>1030.099085133332</v>
       </c>
       <c r="D41" t="n">
-        <v>763.0318583658473</v>
+        <v>1030.099085133332</v>
       </c>
       <c r="E41" t="n">
-        <v>377.243605767603</v>
+        <v>876.152668748367</v>
       </c>
       <c r="F41" t="n">
-        <v>377.243605767603</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="G41" t="n">
-        <v>377.243605767603</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H41" t="n">
         <v>46.89499644164432</v>
@@ -7441,22 +7441,22 @@
         <v>2344.749822082216</v>
       </c>
       <c r="T41" t="n">
-        <v>2344.749822082216</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="U41" t="n">
-        <v>2344.749822082216</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="V41" t="n">
-        <v>2216.494487444204</v>
+        <v>1793.704175370224</v>
       </c>
       <c r="W41" t="n">
-        <v>1863.725832174089</v>
+        <v>1793.704175370224</v>
       </c>
       <c r="X41" t="n">
-        <v>1490.260073913009</v>
+        <v>1420.238417109144</v>
       </c>
       <c r="Y41" t="n">
-        <v>1490.260073913009</v>
+        <v>1030.099085133332</v>
       </c>
     </row>
     <row r="42">
@@ -7466,16 +7466,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.8792202047736</v>
+        <v>876.3701216833169</v>
       </c>
       <c r="C42" t="n">
-        <v>814.4261909236466</v>
+        <v>701.91709240219</v>
       </c>
       <c r="D42" t="n">
-        <v>665.4917812623953</v>
+        <v>552.9826827409387</v>
       </c>
       <c r="E42" t="n">
-        <v>506.2543262569397</v>
+        <v>393.7452277354832</v>
       </c>
       <c r="F42" t="n">
         <v>359.7197682838247</v>
@@ -7490,52 +7490,52 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J42" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K42" t="n">
-        <v>276.0646041288937</v>
+        <v>336.0641406922997</v>
       </c>
       <c r="L42" t="n">
-        <v>645.6158192373777</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M42" t="n">
-        <v>1128.843878304552</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N42" t="n">
-        <v>1640.568559592726</v>
+        <v>1700.568096156132</v>
       </c>
       <c r="O42" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P42" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q42" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R42" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S42" t="n">
-        <v>2183.516266982771</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T42" t="n">
-        <v>1983.973569036802</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U42" t="n">
-        <v>1755.793104690959</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V42" t="n">
-        <v>1520.640996459217</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W42" t="n">
-        <v>1266.403639731015</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="X42" t="n">
-        <v>1266.403639731015</v>
+        <v>1252.345757468339</v>
       </c>
       <c r="Y42" t="n">
-        <v>1157.094557224842</v>
+        <v>1044.585458703385</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2249.819014925703</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="C43" t="n">
-        <v>2080.882831997796</v>
+        <v>438.8323905084034</v>
       </c>
       <c r="D43" t="n">
-        <v>1930.76619258546</v>
+        <v>288.7157510960676</v>
       </c>
       <c r="E43" t="n">
-        <v>1930.76619258546</v>
+        <v>288.7157510960676</v>
       </c>
       <c r="F43" t="n">
-        <v>1783.87624508755</v>
+        <v>141.8258035981573</v>
       </c>
       <c r="G43" t="n">
-        <v>1783.87624508755</v>
+        <v>141.8258035981573</v>
       </c>
       <c r="H43" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I43" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J43" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K43" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702977</v>
       </c>
       <c r="L43" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M43" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N43" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O43" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P43" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q43" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R43" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S43" t="n">
-        <v>2249.819014925703</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T43" t="n">
-        <v>2249.819014925703</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U43" t="n">
-        <v>2249.819014925703</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V43" t="n">
-        <v>2249.819014925703</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W43" t="n">
-        <v>2249.819014925703</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="X43" t="n">
-        <v>2249.819014925703</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Y43" t="n">
-        <v>2249.819014925703</v>
+        <v>607.7685734363102</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>876.152668748367</v>
+        <v>843.6691538294961</v>
       </c>
       <c r="C44" t="n">
-        <v>876.152668748367</v>
+        <v>843.6691538294961</v>
       </c>
       <c r="D44" t="n">
-        <v>876.152668748367</v>
+        <v>843.6691538294961</v>
       </c>
       <c r="E44" t="n">
-        <v>876.152668748367</v>
+        <v>457.8809012312519</v>
       </c>
       <c r="F44" t="n">
-        <v>465.1667639587595</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G44" t="n">
         <v>46.89499644164432</v>
@@ -7675,25 +7675,25 @@
         <v>2344.749822082216</v>
       </c>
       <c r="S44" t="n">
-        <v>2203.937487500293</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T44" t="n">
-        <v>1983.954728131871</v>
+        <v>2205.257635328133</v>
       </c>
       <c r="U44" t="n">
-        <v>1983.954728131871</v>
+        <v>1951.471213213</v>
       </c>
       <c r="V44" t="n">
-        <v>1652.8918407883</v>
+        <v>1620.40832586943</v>
       </c>
       <c r="W44" t="n">
-        <v>1652.8918407883</v>
+        <v>1620.40832586943</v>
       </c>
       <c r="X44" t="n">
-        <v>1652.8918407883</v>
+        <v>1620.40832586943</v>
       </c>
       <c r="Y44" t="n">
-        <v>1262.752508812489</v>
+        <v>1230.268993893618</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.8792202047736</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C45" t="n">
-        <v>814.4261909236466</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D45" t="n">
-        <v>665.4917812623953</v>
+        <v>352.6670094202149</v>
       </c>
       <c r="E45" t="n">
-        <v>506.2543262569397</v>
+        <v>193.4295544147594</v>
       </c>
       <c r="F45" t="n">
-        <v>359.7197682838247</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G45" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H45" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I45" t="n">
         <v>46.89499644164432</v>
@@ -7730,10 +7730,10 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K45" t="n">
-        <v>273.1268607498447</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L45" t="n">
-        <v>642.6780758583286</v>
+        <v>645.6158192373777</v>
       </c>
       <c r="M45" t="n">
         <v>1125.906134925503</v>
@@ -7751,28 +7751,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R45" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S45" t="n">
-        <v>2183.516266982771</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T45" t="n">
-        <v>2183.516266982771</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U45" t="n">
-        <v>1955.335802636929</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.94371292353</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W45" t="n">
-        <v>1572.706356195328</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X45" t="n">
-        <v>1364.854855989795</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y45" t="n">
-        <v>1157.094557224842</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1953.014185341041</v>
+        <v>341.6980375219478</v>
       </c>
       <c r="C46" t="n">
-        <v>1953.014185341041</v>
+        <v>341.6980375219478</v>
       </c>
       <c r="D46" t="n">
-        <v>1953.014185341041</v>
+        <v>341.6980375219478</v>
       </c>
       <c r="E46" t="n">
-        <v>1953.014185341041</v>
+        <v>193.7849439395547</v>
       </c>
       <c r="F46" t="n">
-        <v>1953.014185341041</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G46" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H46" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I46" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J46" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K46" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702977</v>
       </c>
       <c r="L46" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M46" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N46" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O46" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P46" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q46" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R46" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S46" t="n">
-        <v>2180.912607182955</v>
+        <v>391.0727469424309</v>
       </c>
       <c r="T46" t="n">
-        <v>1953.014185341041</v>
+        <v>391.0727469424309</v>
       </c>
       <c r="U46" t="n">
-        <v>1953.014185341041</v>
+        <v>391.0727469424309</v>
       </c>
       <c r="V46" t="n">
-        <v>1953.014185341041</v>
+        <v>341.6980375219478</v>
       </c>
       <c r="W46" t="n">
-        <v>1953.014185341041</v>
+        <v>341.6980375219478</v>
       </c>
       <c r="X46" t="n">
-        <v>1953.014185341041</v>
+        <v>341.6980375219478</v>
       </c>
       <c r="Y46" t="n">
-        <v>1953.014185341041</v>
+        <v>341.6980375219478</v>
       </c>
     </row>
   </sheetData>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>242.4075215744184</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,7 +8218,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8303,19 +8303,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>247.3552705420797</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,13 +8534,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>299.7328472056018</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,16 +8768,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>65.48544285212</v>
+        <v>65.48544285212002</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>108.5094987082737</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>309.7493254456951</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212002</v>
       </c>
       <c r="K15" t="n">
-        <v>47.90390621998491</v>
+        <v>108.5094987082737</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>65.48544285212</v>
+        <v>65.48544285212002</v>
       </c>
       <c r="K18" t="n">
-        <v>108.5094987082738</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9260,10 +9260,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>315.495351085342</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613913</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212003</v>
       </c>
       <c r="K21" t="n">
-        <v>200.8922269696948</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9494,13 +9494,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>390.894901722135</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>57.08896698613911</v>
+        <v>57.08896698613916</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9719,7 +9719,7 @@
         <v>65.48544285212</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>261.4978194579837</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9734,7 +9734,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>315.4953510853424</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>57.08896698613911</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>261.4978194579837</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9965,7 +9965,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>262.7810435509599</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>57.08896698613911</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10193,7 +10193,7 @@
         <v>65.48544285212</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>261.4978194579837</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10208,7 +10208,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>315.4953510853424</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>57.08896698613911</v>
@@ -10430,7 +10430,7 @@
         <v>65.48544285212</v>
       </c>
       <c r="K33" t="n">
-        <v>261.4978194579837</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10445,7 +10445,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>315.4953510853424</v>
       </c>
       <c r="Q33" t="n">
         <v>57.08896698613911</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>108.5094987082738</v>
+        <v>47.90390621998491</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10901,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K39" t="n">
-        <v>200.8922269696948</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10919,7 +10919,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>315.4953510853424</v>
       </c>
       <c r="Q39" t="n">
         <v>57.08896698613911</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11153,13 +11153,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>237.9065809724246</v>
+        <v>330.2893092338458</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>57.0889669861391</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11314,10 +11314,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714823</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599042</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11378,13 +11378,13 @@
         <v>65.48544285212</v>
       </c>
       <c r="K45" t="n">
-        <v>261.4978194579836</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>462.7376461954049</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
@@ -23263,22 +23263,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>154.7001730616109</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>230.0132162696054</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T11" t="n">
         <v>217.7829317747374</v>
@@ -23320,7 +23320,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23336,13 +23336,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>136.7065056498031</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -23384,13 +23384,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>59.83930139749142</v>
+        <v>59.83930139749143</v>
       </c>
       <c r="S12" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>143.6184697512195</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23427,19 +23427,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>108.9366819640819</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>107.2296075137875</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>54.86879163620182</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>40.57441713704631</v>
+        <v>40.57441713704632</v>
       </c>
       <c r="R13" t="n">
         <v>152.8143555761653</v>
@@ -23478,13 +23478,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>34.21306031949518</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>163.6851955497072</v>
@@ -23542,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>181.3631617334038</v>
@@ -23557,7 +23557,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>64.97650010919699</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23582,7 +23582,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -23621,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>143.6184697512195</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>205.433910241761</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23658,25 +23658,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>54.06789032788008</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J16" t="n">
-        <v>54.86879163620181</v>
+        <v>54.86879163620182</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>40.57441713704631</v>
+        <v>40.57441713704632</v>
       </c>
       <c r="R16" t="n">
         <v>152.8143555761653</v>
@@ -23709,7 +23709,7 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2893338015361</v>
+        <v>192.5075744689163</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>139.5089120370666</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>343.9680791151454</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23813,16 +23813,16 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>66.76363414007676</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>14.27705323942851</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>136.6941370086349</v>
@@ -23831,7 +23831,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23861,7 +23861,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23913,7 +23913,7 @@
         <v>139.0783256288916</v>
       </c>
       <c r="J19" t="n">
-        <v>54.86879163620181</v>
+        <v>54.86879163620182</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,19 +23934,19 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>40.57441713704631</v>
+        <v>40.57441713704632</v>
       </c>
       <c r="R19" t="n">
         <v>152.8143555761653</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>68.77122993280835</v>
       </c>
       <c r="U19" t="n">
-        <v>171.1727984292529</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23958,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23974,22 +23974,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>201.8505026595677</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>73.62980964006115</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -24025,19 +24025,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>222.5696903819709</v>
       </c>
     </row>
     <row r="21">
@@ -24047,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>98.4931316749374</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -24059,13 +24059,13 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I21" t="n">
         <v>67.03858805571426</v>
@@ -24101,7 +24101,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24116,7 +24116,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>45.00739118865394</v>
       </c>
     </row>
     <row r="22">
@@ -24129,13 +24129,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24144,13 +24144,13 @@
         <v>167.4465608509556</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>54.86879163620183</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,16 +24171,16 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>40.57441713704633</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S22" t="n">
-        <v>203.986714032347</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T22" t="n">
-        <v>225.6194376234954</v>
+        <v>132.6508531621858</v>
       </c>
       <c r="U22" t="n">
         <v>286.2893338015361</v>
@@ -24208,10 +24208,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24253,16 +24253,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U23" t="n">
-        <v>249.7962327857823</v>
+        <v>157.3412804663736</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24271,7 +24271,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24296,16 +24296,16 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>53.38246657340298</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I24" t="n">
-        <v>5.910500182201396</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24335,10 +24335,10 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J25" t="n">
         <v>54.86879163620181</v>
@@ -24420,7 +24420,7 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2893338015361</v>
+        <v>17.5474909134079</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24432,7 +24432,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>88.92113609285815</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>282.5375388688766</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I26" t="n">
         <v>163.6851955497072</v>
@@ -24493,13 +24493,13 @@
         <v>73.62980964006113</v>
       </c>
       <c r="S26" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>154.5237272881575</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24508,7 +24508,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24536,10 +24536,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I27" t="n">
         <v>67.03858805571426</v>
@@ -24578,13 +24578,13 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>53.38246657340306</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>63.23981549202188</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -24606,13 +24606,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>25.29467815301537</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>167.4465608509556</v>
@@ -24654,19 +24654,19 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T28" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2893338015361</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>148.2018951116413</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>414.089049841944</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>73.62980964006113</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>299.2109593224332</v>
+        <v>2.857852141031628</v>
       </c>
     </row>
     <row r="30">
@@ -24767,19 +24767,19 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>53.38246657340298</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>143.6184697512196</v>
       </c>
       <c r="G30" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24806,10 +24806,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24843,13 +24843,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>167.4465608509556</v>
@@ -24858,7 +24858,7 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I31" t="n">
-        <v>139.0783256288916</v>
+        <v>24.28396809188516</v>
       </c>
       <c r="J31" t="n">
         <v>54.86879163620181</v>
@@ -24897,13 +24897,13 @@
         <v>286.2893338015361</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>209.1054558247364</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.1301904754757</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24970,7 +24970,7 @@
         <v>181.3631617334038</v>
       </c>
       <c r="T32" t="n">
-        <v>217.7829317747374</v>
+        <v>193.3299195037242</v>
       </c>
       <c r="U32" t="n">
         <v>251.2485578939812</v>
@@ -24982,10 +24982,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25010,13 +25010,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25043,16 +25043,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>197.5472709665096</v>
+        <v>53.38246657340289</v>
       </c>
       <c r="U33" t="n">
-        <v>105.6924183331604</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -25077,19 +25077,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>52.45246356162097</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>157.3867970498209</v>
@@ -25128,13 +25128,13 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T34" t="n">
-        <v>225.6194376234954</v>
+        <v>89.93880057355983</v>
       </c>
       <c r="U34" t="n">
         <v>286.2893338015361</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>343.5182654632544</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>359.7514718631725</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25210,7 +25210,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25219,7 +25219,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25244,16 +25244,16 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>53.38246657340298</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25286,13 +25286,13 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>130.2784035477362</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -25323,10 +25323,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>157.3867970498209</v>
@@ -25356,19 +25356,19 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R37" t="n">
         <v>152.8143555761653</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U37" t="n">
-        <v>211.7472155662992</v>
+        <v>43.89210145070376</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25396,19 +25396,19 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I38" t="n">
         <v>163.6851955497072</v>
@@ -25444,19 +25444,19 @@
         <v>181.3631617334038</v>
       </c>
       <c r="T38" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2485578939812</v>
+        <v>78.82323234579584</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>63.69811359398784</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25475,22 +25475,22 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>14.27705323942851</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>136.6941370086349</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>19.10048672639638</v>
       </c>
       <c r="I39" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -25560,16 +25560,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>54.06789032787962</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J40" t="n">
         <v>54.86879163620181</v>
@@ -25605,7 +25605,7 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2893338015361</v>
+        <v>43.89210145070376</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25630,22 +25630,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>229.5234178511462</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I41" t="n">
         <v>163.6851955497072</v>
@@ -25681,22 +25681,22 @@
         <v>181.3631617334038</v>
       </c>
       <c r="T41" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>251.2485578939812</v>
       </c>
       <c r="V41" t="n">
-        <v>200.7794771785023</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25718,7 +25718,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>111.384007536242</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -25754,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>59.83930139749141</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -25769,13 +25769,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>97.46670409619252</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25803,7 +25803,7 @@
         <v>167.4465608509556</v>
       </c>
       <c r="H43" t="n">
-        <v>157.3867970498209</v>
+        <v>63.40529796487309</v>
       </c>
       <c r="I43" t="n">
         <v>139.0783256288915</v>
@@ -25836,7 +25836,7 @@
         <v>152.8143555761653</v>
       </c>
       <c r="S43" t="n">
-        <v>120.5473691439924</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T43" t="n">
         <v>225.6194376234954</v>
@@ -25873,13 +25873,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H44" t="n">
         <v>327.0451232326991</v>
@@ -25915,13 +25915,13 @@
         <v>73.62980964006111</v>
       </c>
       <c r="S44" t="n">
-        <v>41.9589504972995</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>79.6856668881949</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25949,7 +25949,7 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>53.38246657340299</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -25958,13 +25958,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,19 +25991,19 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>59.83930139749141</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>105.6924183331603</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -26031,13 +26031,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H46" t="n">
         <v>157.3867970498209</v>
@@ -26073,16 +26073,16 @@
         <v>152.8143555761653</v>
       </c>
       <c r="S46" t="n">
-        <v>52.33002547867196</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U46" t="n">
         <v>286.2893338015361</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>203.2566809975497</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>629866.0504453481</v>
+        <v>629866.050445348</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>629866.0504453483</v>
+        <v>629866.050445348</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>629866.0504453484</v>
+        <v>629866.0504453481</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>629866.0504453483</v>
+        <v>629866.0504453481</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>629866.050445348</v>
+        <v>629866.0504453483</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>629866.0504453481</v>
+        <v>629866.0504453483</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>629866.0504453484</v>
+        <v>629866.0504453483</v>
       </c>
     </row>
     <row r="15">
@@ -26316,16 +26316,16 @@
         <v>513151.106165177</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651771</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651768</v>
+        <v>513151.1061651771</v>
       </c>
       <c r="E2" t="n">
         <v>330470.1247052692</v>
       </c>
       <c r="F2" t="n">
-        <v>330470.1247052692</v>
+        <v>330470.1247052693</v>
       </c>
       <c r="G2" t="n">
         <v>330470.1247052692</v>
@@ -26337,22 +26337,22 @@
         <v>330470.1247052692</v>
       </c>
       <c r="J2" t="n">
-        <v>330470.1247052694</v>
+        <v>330470.1247052693</v>
       </c>
       <c r="K2" t="n">
         <v>330470.1247052692</v>
       </c>
       <c r="L2" t="n">
-        <v>330470.1247052691</v>
+        <v>330470.1247052692</v>
       </c>
       <c r="M2" t="n">
-        <v>330470.1247052693</v>
+        <v>330470.1247052692</v>
       </c>
       <c r="N2" t="n">
         <v>330470.1247052692</v>
       </c>
       <c r="O2" t="n">
-        <v>330470.1247052692</v>
+        <v>330470.1247052691</v>
       </c>
       <c r="P2" t="n">
         <v>330470.1247052692</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>345612.3427789527</v>
+        <v>345612.3427789526</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>86018.53382007603</v>
+        <v>86018.53382007597</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26459,7 +26459,7 @@
         <v>35464.97636158489</v>
       </c>
       <c r="P4" t="n">
-        <v>35464.97636158489</v>
+        <v>35464.97636158488</v>
       </c>
     </row>
     <row r="5">
@@ -26524,46 +26524,46 @@
         <v>71505.03145115048</v>
       </c>
       <c r="C6" t="n">
-        <v>152274.4629826982</v>
+        <v>152274.4629826983</v>
       </c>
       <c r="D6" t="n">
-        <v>152274.4629826981</v>
+        <v>152274.4629826983</v>
       </c>
       <c r="E6" t="n">
-        <v>-92828.91656071495</v>
+        <v>-100136.1558191112</v>
       </c>
       <c r="F6" t="n">
-        <v>252783.4262182378</v>
+        <v>245476.1869598415</v>
       </c>
       <c r="G6" t="n">
-        <v>252783.4262182377</v>
+        <v>245476.1869598414</v>
       </c>
       <c r="H6" t="n">
-        <v>252783.4262182378</v>
+        <v>245476.1869598414</v>
       </c>
       <c r="I6" t="n">
-        <v>252783.4262182378</v>
+        <v>245476.1869598414</v>
       </c>
       <c r="J6" t="n">
-        <v>189723.4836191317</v>
+        <v>182416.2443607353</v>
       </c>
       <c r="K6" t="n">
-        <v>252783.4262182378</v>
+        <v>245476.1869598414</v>
       </c>
       <c r="L6" t="n">
-        <v>252783.4262182376</v>
+        <v>245476.1869598414</v>
       </c>
       <c r="M6" t="n">
-        <v>166764.8923981618</v>
+        <v>159457.6531397654</v>
       </c>
       <c r="N6" t="n">
-        <v>252783.4262182377</v>
+        <v>245476.1869598415</v>
       </c>
       <c r="O6" t="n">
-        <v>252783.4262182377</v>
+        <v>245476.1869598413</v>
       </c>
       <c r="P6" t="n">
-        <v>252783.4262182377</v>
+        <v>245476.1869598415</v>
       </c>
     </row>
   </sheetData>
@@ -26755,7 +26755,7 @@
         <v>301.9048087062786</v>
       </c>
       <c r="H3" t="n">
-        <v>301.9048087062786</v>
+        <v>301.9048087062785</v>
       </c>
       <c r="I3" t="n">
         <v>301.9048087062786</v>
@@ -26798,13 +26798,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>586.1874555205541</v>
+        <v>586.187455520554</v>
       </c>
       <c r="F4" t="n">
-        <v>586.1874555205541</v>
+        <v>586.187455520554</v>
       </c>
       <c r="G4" t="n">
-        <v>586.1874555205541</v>
+        <v>586.187455520554</v>
       </c>
       <c r="H4" t="n">
         <v>586.1874555205541</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>345.173166642895</v>
+        <v>345.1731666428949</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>345.1731666428951</v>
+        <v>345.1731666428948</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>345.173166642895</v>
+        <v>345.1731666428949</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,19 +27387,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>152.5970991193535</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>345.7616595229184</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27457,31 +27457,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27505,10 +27505,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -27526,7 +27526,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>141.1176411966843</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27545,7 +27545,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>35.51648688708399</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27557,7 +27557,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>44.5329991677731</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
@@ -27621,25 +27621,25 @@
         <v>124.2586028933485</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>273.8529271457276</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>204.5813593128142</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27697,25 +27697,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>19.8036215502736</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,19 +27742,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27797,7 +27797,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>49.05569651810563</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>156.0574714863295</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27861,16 +27861,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>303.2588669259509</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
@@ -27900,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>195.8925415817687</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -27937,22 +27937,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>139.4266568331837</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>9.908910410768343</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,16 +27979,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -27997,10 +27997,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28034,10 +28034,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28052,10 +28052,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>71.32518834398849</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -28070,7 +28070,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -31758,25 +31758,25 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I11" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069872</v>
       </c>
       <c r="J11" t="n">
         <v>103.0102241525006</v>
       </c>
       <c r="K11" t="n">
-        <v>154.3856233586786</v>
+        <v>154.3856233586785</v>
       </c>
       <c r="L11" t="n">
-        <v>191.5290174870998</v>
+        <v>191.5290174870997</v>
       </c>
       <c r="M11" t="n">
-        <v>213.1129356452115</v>
+        <v>213.1129356452114</v>
       </c>
       <c r="N11" t="n">
-        <v>216.5613257466656</v>
+        <v>216.5613257466655</v>
       </c>
       <c r="O11" t="n">
-        <v>204.4927189463719</v>
+        <v>204.4927189463718</v>
       </c>
       <c r="P11" t="n">
         <v>174.5298045144673</v>
@@ -31785,16 +31785,16 @@
         <v>131.0646147183121</v>
       </c>
       <c r="R11" t="n">
-        <v>76.23930830108856</v>
+        <v>76.23930830108854</v>
       </c>
       <c r="S11" t="n">
         <v>27.65690785284151</v>
       </c>
       <c r="T11" t="n">
-        <v>5.312917789393907</v>
+        <v>5.312917789393906</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528548</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,22 +31831,22 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.649380154575769</v>
       </c>
       <c r="H12" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087033</v>
       </c>
       <c r="I12" t="n">
-        <v>22.35804479570083</v>
+        <v>22.35804479570082</v>
       </c>
       <c r="J12" t="n">
-        <v>61.35218381454669</v>
+        <v>61.35218381454668</v>
       </c>
       <c r="K12" t="n">
         <v>104.8606541711232</v>
       </c>
       <c r="L12" t="n">
-        <v>140.9980901415503</v>
+        <v>140.9980901415502</v>
       </c>
       <c r="M12" t="n">
         <v>164.5381207449218</v>
@@ -31861,7 +31861,7 @@
         <v>124.0031279382449</v>
       </c>
       <c r="Q12" t="n">
-        <v>82.8928070998824</v>
+        <v>82.89280709988239</v>
       </c>
       <c r="R12" t="n">
         <v>40.31853275515171</v>
@@ -31870,10 +31870,10 @@
         <v>12.06195155538763</v>
       </c>
       <c r="T12" t="n">
-        <v>2.617457728311981</v>
+        <v>2.61745772831198</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04272237859051115</v>
+        <v>0.04272237859051114</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031253</v>
       </c>
       <c r="H13" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618698</v>
       </c>
       <c r="I13" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J13" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047095</v>
       </c>
       <c r="K13" t="n">
-        <v>63.25153205354491</v>
+        <v>63.2515320535449</v>
       </c>
       <c r="L13" t="n">
-        <v>80.94018428823739</v>
+        <v>80.94018428823738</v>
       </c>
       <c r="M13" t="n">
-        <v>85.34007568069444</v>
+        <v>85.34007568069443</v>
       </c>
       <c r="N13" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545558</v>
       </c>
       <c r="O13" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598722</v>
       </c>
       <c r="P13" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292341</v>
       </c>
       <c r="Q13" t="n">
-        <v>45.58762611464807</v>
+        <v>45.58762611464806</v>
       </c>
       <c r="R13" t="n">
-        <v>24.47903580100416</v>
+        <v>24.47903580100415</v>
       </c>
       <c r="S13" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031734</v>
       </c>
       <c r="T13" t="n">
         <v>2.32615180478608</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471595</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31995,25 +31995,25 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I14" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069872</v>
       </c>
       <c r="J14" t="n">
         <v>103.0102241525006</v>
       </c>
       <c r="K14" t="n">
-        <v>154.3856233586786</v>
+        <v>154.3856233586785</v>
       </c>
       <c r="L14" t="n">
-        <v>191.5290174870998</v>
+        <v>191.5290174870997</v>
       </c>
       <c r="M14" t="n">
-        <v>213.1129356452115</v>
+        <v>213.1129356452114</v>
       </c>
       <c r="N14" t="n">
-        <v>216.5613257466656</v>
+        <v>216.5613257466655</v>
       </c>
       <c r="O14" t="n">
-        <v>204.4927189463719</v>
+        <v>204.4927189463718</v>
       </c>
       <c r="P14" t="n">
         <v>174.5298045144673</v>
@@ -32022,16 +32022,16 @@
         <v>131.0646147183121</v>
       </c>
       <c r="R14" t="n">
-        <v>76.23930830108856</v>
+        <v>76.23930830108854</v>
       </c>
       <c r="S14" t="n">
         <v>27.65690785284151</v>
       </c>
       <c r="T14" t="n">
-        <v>5.312917789393907</v>
+        <v>5.312917789393906</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528548</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,22 +32068,22 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.649380154575769</v>
       </c>
       <c r="H15" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087033</v>
       </c>
       <c r="I15" t="n">
-        <v>22.35804479570083</v>
+        <v>22.35804479570082</v>
       </c>
       <c r="J15" t="n">
-        <v>61.35218381454669</v>
+        <v>61.35218381454668</v>
       </c>
       <c r="K15" t="n">
         <v>104.8606541711232</v>
       </c>
       <c r="L15" t="n">
-        <v>140.9980901415503</v>
+        <v>140.9980901415502</v>
       </c>
       <c r="M15" t="n">
         <v>164.5381207449218</v>
@@ -32098,7 +32098,7 @@
         <v>124.0031279382449</v>
       </c>
       <c r="Q15" t="n">
-        <v>82.8928070998824</v>
+        <v>82.89280709988239</v>
       </c>
       <c r="R15" t="n">
         <v>40.31853275515171</v>
@@ -32107,10 +32107,10 @@
         <v>12.06195155538763</v>
       </c>
       <c r="T15" t="n">
-        <v>2.617457728311981</v>
+        <v>2.61745772831198</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04272237859051115</v>
+        <v>0.04272237859051114</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031253</v>
       </c>
       <c r="H16" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618698</v>
       </c>
       <c r="I16" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J16" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047095</v>
       </c>
       <c r="K16" t="n">
-        <v>63.25153205354491</v>
+        <v>63.2515320535449</v>
       </c>
       <c r="L16" t="n">
-        <v>80.94018428823739</v>
+        <v>80.94018428823738</v>
       </c>
       <c r="M16" t="n">
-        <v>85.34007568069444</v>
+        <v>85.34007568069443</v>
       </c>
       <c r="N16" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545558</v>
       </c>
       <c r="O16" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598722</v>
       </c>
       <c r="P16" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292341</v>
       </c>
       <c r="Q16" t="n">
-        <v>45.58762611464807</v>
+        <v>45.58762611464806</v>
       </c>
       <c r="R16" t="n">
-        <v>24.47903580100416</v>
+        <v>24.47903580100415</v>
       </c>
       <c r="S16" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031734</v>
       </c>
       <c r="T16" t="n">
         <v>2.32615180478608</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471595</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32232,25 +32232,25 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I17" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069872</v>
       </c>
       <c r="J17" t="n">
         <v>103.0102241525006</v>
       </c>
       <c r="K17" t="n">
-        <v>154.3856233586786</v>
+        <v>154.3856233586785</v>
       </c>
       <c r="L17" t="n">
-        <v>191.5290174870998</v>
+        <v>191.5290174870997</v>
       </c>
       <c r="M17" t="n">
-        <v>213.1129356452115</v>
+        <v>213.1129356452114</v>
       </c>
       <c r="N17" t="n">
-        <v>216.5613257466656</v>
+        <v>216.5613257466655</v>
       </c>
       <c r="O17" t="n">
-        <v>204.4927189463719</v>
+        <v>204.4927189463718</v>
       </c>
       <c r="P17" t="n">
         <v>174.5298045144673</v>
@@ -32259,16 +32259,16 @@
         <v>131.0646147183121</v>
       </c>
       <c r="R17" t="n">
-        <v>76.23930830108856</v>
+        <v>76.23930830108854</v>
       </c>
       <c r="S17" t="n">
         <v>27.65690785284151</v>
       </c>
       <c r="T17" t="n">
-        <v>5.312917789393907</v>
+        <v>5.312917789393906</v>
       </c>
       <c r="U17" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528548</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,22 +32305,22 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.649380154575769</v>
       </c>
       <c r="H18" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087033</v>
       </c>
       <c r="I18" t="n">
-        <v>22.35804479570083</v>
+        <v>22.35804479570082</v>
       </c>
       <c r="J18" t="n">
-        <v>61.35218381454669</v>
+        <v>61.35218381454668</v>
       </c>
       <c r="K18" t="n">
         <v>104.8606541711232</v>
       </c>
       <c r="L18" t="n">
-        <v>140.9980901415503</v>
+        <v>140.9980901415502</v>
       </c>
       <c r="M18" t="n">
         <v>164.5381207449218</v>
@@ -32335,7 +32335,7 @@
         <v>124.0031279382449</v>
       </c>
       <c r="Q18" t="n">
-        <v>82.8928070998824</v>
+        <v>82.89280709988239</v>
       </c>
       <c r="R18" t="n">
         <v>40.31853275515171</v>
@@ -32344,10 +32344,10 @@
         <v>12.06195155538763</v>
       </c>
       <c r="T18" t="n">
-        <v>2.617457728311981</v>
+        <v>2.61745772831198</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04272237859051115</v>
+        <v>0.04272237859051114</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031253</v>
       </c>
       <c r="H19" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618698</v>
       </c>
       <c r="I19" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J19" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047095</v>
       </c>
       <c r="K19" t="n">
-        <v>63.25153205354491</v>
+        <v>63.2515320535449</v>
       </c>
       <c r="L19" t="n">
-        <v>80.94018428823739</v>
+        <v>80.94018428823738</v>
       </c>
       <c r="M19" t="n">
-        <v>85.34007568069444</v>
+        <v>85.34007568069443</v>
       </c>
       <c r="N19" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545558</v>
       </c>
       <c r="O19" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598722</v>
       </c>
       <c r="P19" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292341</v>
       </c>
       <c r="Q19" t="n">
-        <v>45.58762611464807</v>
+        <v>45.58762611464806</v>
       </c>
       <c r="R19" t="n">
-        <v>24.47903580100416</v>
+        <v>24.47903580100415</v>
       </c>
       <c r="S19" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031734</v>
       </c>
       <c r="T19" t="n">
         <v>2.32615180478608</v>
       </c>
       <c r="U19" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471595</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,31 +32463,31 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.213687673191069</v>
+        <v>1.213687673191068</v>
       </c>
       <c r="H20" t="n">
-        <v>12.42967888306804</v>
+        <v>12.42967888306803</v>
       </c>
       <c r="I20" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069872</v>
       </c>
       <c r="J20" t="n">
-        <v>103.0102241525006</v>
+        <v>103.0102241525005</v>
       </c>
       <c r="K20" t="n">
-        <v>154.3856233586786</v>
+        <v>154.3856233586785</v>
       </c>
       <c r="L20" t="n">
-        <v>191.5290174870998</v>
+        <v>191.5290174870997</v>
       </c>
       <c r="M20" t="n">
-        <v>213.1129356452115</v>
+        <v>213.1129356452114</v>
       </c>
       <c r="N20" t="n">
-        <v>216.5613257466656</v>
+        <v>216.5613257466655</v>
       </c>
       <c r="O20" t="n">
-        <v>204.4927189463719</v>
+        <v>204.4927189463718</v>
       </c>
       <c r="P20" t="n">
         <v>174.5298045144673</v>
@@ -32496,16 +32496,16 @@
         <v>131.0646147183121</v>
       </c>
       <c r="R20" t="n">
-        <v>76.23930830108856</v>
+        <v>76.23930830108853</v>
       </c>
       <c r="S20" t="n">
-        <v>27.65690785284151</v>
+        <v>27.6569078528415</v>
       </c>
       <c r="T20" t="n">
-        <v>5.312917789393907</v>
+        <v>5.312917789393905</v>
       </c>
       <c r="U20" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528546</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,28 +32542,28 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.6493801545757689</v>
       </c>
       <c r="H21" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087033</v>
       </c>
       <c r="I21" t="n">
-        <v>22.35804479570083</v>
+        <v>22.35804479570082</v>
       </c>
       <c r="J21" t="n">
-        <v>61.35218381454669</v>
+        <v>61.35218381454667</v>
       </c>
       <c r="K21" t="n">
         <v>104.8606541711232</v>
       </c>
       <c r="L21" t="n">
-        <v>140.9980901415503</v>
+        <v>140.9980901415502</v>
       </c>
       <c r="M21" t="n">
         <v>164.5381207449218</v>
       </c>
       <c r="N21" t="n">
-        <v>168.8929552025813</v>
+        <v>168.8929552025812</v>
       </c>
       <c r="O21" t="n">
         <v>154.5040580932971</v>
@@ -32572,19 +32572,19 @@
         <v>124.0031279382449</v>
       </c>
       <c r="Q21" t="n">
-        <v>82.8928070998824</v>
+        <v>82.89280709988236</v>
       </c>
       <c r="R21" t="n">
-        <v>40.31853275515171</v>
+        <v>40.3185327551517</v>
       </c>
       <c r="S21" t="n">
         <v>12.06195155538763</v>
       </c>
       <c r="T21" t="n">
-        <v>2.617457728311981</v>
+        <v>2.61745772831198</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04272237859051115</v>
+        <v>0.04272237859051113</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031251</v>
       </c>
       <c r="H22" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618697</v>
       </c>
       <c r="I22" t="n">
-        <v>16.37214929836672</v>
+        <v>16.37214929836671</v>
       </c>
       <c r="J22" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047095</v>
       </c>
       <c r="K22" t="n">
-        <v>63.25153205354491</v>
+        <v>63.25153205354489</v>
       </c>
       <c r="L22" t="n">
-        <v>80.94018428823739</v>
+        <v>80.94018428823736</v>
       </c>
       <c r="M22" t="n">
-        <v>85.34007568069444</v>
+        <v>85.34007568069441</v>
       </c>
       <c r="N22" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545557</v>
       </c>
       <c r="O22" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598721</v>
       </c>
       <c r="P22" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292339</v>
       </c>
       <c r="Q22" t="n">
-        <v>45.58762611464807</v>
+        <v>45.58762611464805</v>
       </c>
       <c r="R22" t="n">
-        <v>24.47903580100416</v>
+        <v>24.47903580100415</v>
       </c>
       <c r="S22" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031732</v>
       </c>
       <c r="T22" t="n">
-        <v>2.32615180478608</v>
+        <v>2.326151804786079</v>
       </c>
       <c r="U22" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471595</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34713,7 +34713,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>99.8112771299739</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35023,19 +35023,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N6" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
       <c r="P6" t="n">
-        <v>113.3808631277494</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,13 +35254,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>161.1784674257276</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
@@ -35272,7 +35272,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>91.06093479788807</v>
+        <v>91.06093479788805</v>
       </c>
       <c r="K11" t="n">
         <v>258.4411848848628</v>
@@ -35418,13 +35418,13 @@
         <v>373.4238170675629</v>
       </c>
       <c r="M11" t="n">
-        <v>432.2802359107712</v>
+        <v>432.2802359107711</v>
       </c>
       <c r="N11" t="n">
         <v>424.4951865620588</v>
       </c>
       <c r="O11" t="n">
-        <v>355.1946887874305</v>
+        <v>355.1946887874304</v>
       </c>
       <c r="P11" t="n">
         <v>265.0955169306804</v>
@@ -35491,13 +35491,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>231.4844522093428</v>
+        <v>75.52871390503788</v>
       </c>
       <c r="L12" t="n">
-        <v>373.2840556651353</v>
+        <v>373.2840556651352</v>
       </c>
       <c r="M12" t="n">
-        <v>332.1534122685987</v>
+        <v>488.1091505729034</v>
       </c>
       <c r="N12" t="n">
         <v>516.8936174628016</v>
@@ -35570,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>40.98204022766206</v>
+        <v>40.98204022766205</v>
       </c>
       <c r="L13" t="n">
         <v>108.5302095485535</v>
@@ -35585,7 +35585,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P13" t="n">
-        <v>63.12350311781691</v>
+        <v>63.1235031178169</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>91.06093479788807</v>
+        <v>91.06093479788805</v>
       </c>
       <c r="K14" t="n">
         <v>258.4411848848628</v>
@@ -35655,13 +35655,13 @@
         <v>373.4238170675629</v>
       </c>
       <c r="M14" t="n">
-        <v>432.2802359107712</v>
+        <v>432.2802359107711</v>
       </c>
       <c r="N14" t="n">
         <v>424.4951865620588</v>
       </c>
       <c r="O14" t="n">
-        <v>355.1946887874305</v>
+        <v>355.1946887874304</v>
       </c>
       <c r="P14" t="n">
         <v>265.0955169306804</v>
@@ -35725,13 +35725,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>14.92312141674913</v>
+        <v>75.52871390503788</v>
       </c>
       <c r="L15" t="n">
-        <v>373.2840556651353</v>
+        <v>373.2840556651352</v>
       </c>
       <c r="M15" t="n">
         <v>488.1091505729034</v>
@@ -35807,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>40.98204022766206</v>
+        <v>40.98204022766205</v>
       </c>
       <c r="L16" t="n">
         <v>108.5302095485535</v>
@@ -35822,7 +35822,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P16" t="n">
-        <v>63.12350311781691</v>
+        <v>63.1235031178169</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>91.06093479788807</v>
+        <v>91.06093479788805</v>
       </c>
       <c r="K17" t="n">
         <v>258.4411848848628</v>
@@ -35892,13 +35892,13 @@
         <v>373.4238170675629</v>
       </c>
       <c r="M17" t="n">
-        <v>432.2802359107712</v>
+        <v>432.2802359107711</v>
       </c>
       <c r="N17" t="n">
         <v>424.4951865620588</v>
       </c>
       <c r="O17" t="n">
-        <v>355.1946887874305</v>
+        <v>355.1946887874304</v>
       </c>
       <c r="P17" t="n">
         <v>265.0955169306804</v>
@@ -35965,10 +35965,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>75.52871390503797</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L18" t="n">
-        <v>373.2840556651353</v>
+        <v>373.2840556651352</v>
       </c>
       <c r="M18" t="n">
         <v>488.1091505729034</v>
@@ -35980,10 +35980,10 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P18" t="n">
-        <v>308.4914891638518</v>
+        <v>305.5240716092566</v>
       </c>
       <c r="Q18" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>40.98204022766206</v>
+        <v>40.98204022766205</v>
       </c>
       <c r="L19" t="n">
         <v>108.5302095485535</v>
@@ -36059,7 +36059,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P19" t="n">
-        <v>63.12350311781691</v>
+        <v>63.1235031178169</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,25 +36120,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>91.06093479788807</v>
+        <v>91.06093479788802</v>
       </c>
       <c r="K20" t="n">
-        <v>258.4411848848628</v>
+        <v>258.4411848848627</v>
       </c>
       <c r="L20" t="n">
         <v>373.4238170675629</v>
       </c>
       <c r="M20" t="n">
-        <v>432.2802359107712</v>
+        <v>432.2802359107711</v>
       </c>
       <c r="N20" t="n">
-        <v>424.4951865620588</v>
+        <v>424.4951865620587</v>
       </c>
       <c r="O20" t="n">
-        <v>355.1946887874305</v>
+        <v>355.1946887874304</v>
       </c>
       <c r="P20" t="n">
-        <v>265.0955169306804</v>
+        <v>265.0955169306803</v>
       </c>
       <c r="Q20" t="n">
         <v>121.0739155037673</v>
@@ -36199,22 +36199,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>167.911442166459</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L21" t="n">
-        <v>373.2840556651353</v>
+        <v>373.2840556651352</v>
       </c>
       <c r="M21" t="n">
-        <v>488.1091505729034</v>
+        <v>488.1091505729033</v>
       </c>
       <c r="N21" t="n">
-        <v>516.8936174628016</v>
+        <v>516.8936174628014</v>
       </c>
       <c r="O21" t="n">
-        <v>405.7701329255822</v>
+        <v>402.8027153709877</v>
       </c>
       <c r="P21" t="n">
         <v>308.4914891638518</v>
@@ -36281,7 +36281,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>40.98204022766206</v>
+        <v>40.98204022766203</v>
       </c>
       <c r="L22" t="n">
         <v>108.5302095485535</v>
@@ -36296,7 +36296,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P22" t="n">
-        <v>63.12350311781691</v>
+        <v>63.12350311781688</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>231.4844522093428</v>
+        <v>228.5170346547479</v>
       </c>
       <c r="L24" t="n">
         <v>373.2840556651353</v>
@@ -36454,7 +36454,7 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P24" t="n">
-        <v>305.5240716092571</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K27" t="n">
-        <v>228.5170346547479</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L27" t="n">
         <v>373.2840556651353</v>
@@ -36685,7 +36685,7 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N27" t="n">
-        <v>516.8936174628016</v>
+        <v>300.3322866702078</v>
       </c>
       <c r="O27" t="n">
         <v>405.7701329255822</v>
@@ -36694,7 +36694,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>231.4844522093428</v>
+        <v>228.5170346547479</v>
       </c>
       <c r="L30" t="n">
         <v>373.2840556651353</v>
@@ -36928,7 +36928,7 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P30" t="n">
-        <v>305.5240716092571</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>228.5170346547479</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L33" t="n">
         <v>373.2840556651353</v>
@@ -37165,7 +37165,7 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P33" t="n">
-        <v>308.4914891638518</v>
+        <v>305.5240716092571</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K36" t="n">
-        <v>75.52871390503797</v>
+        <v>14.92312141674913</v>
       </c>
       <c r="L36" t="n">
         <v>373.2840556651353</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>167.911442166459</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L39" t="n">
         <v>373.2840556651353</v>
@@ -37639,7 +37639,7 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P39" t="n">
-        <v>308.4914891638518</v>
+        <v>305.5240716092571</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>60.60559248828884</v>
       </c>
       <c r="K42" t="n">
         <v>231.4844522093429</v>
@@ -37873,13 +37873,13 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O42" t="n">
-        <v>249.8143946212773</v>
+        <v>342.1971228826985</v>
       </c>
       <c r="P42" t="n">
         <v>308.4914891638518</v>
       </c>
       <c r="Q42" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38034,10 +38034,10 @@
         <v>355.1946887874306</v>
       </c>
       <c r="P44" t="n">
-        <v>265.0955169306801</v>
+        <v>265.0955169306804</v>
       </c>
       <c r="Q44" t="n">
-        <v>121.0739155037674</v>
+        <v>121.0739155037669</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38098,13 +38098,13 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>228.5170346547479</v>
+        <v>231.4844522093429</v>
       </c>
       <c r="L45" t="n">
         <v>373.2840556651353</v>
       </c>
       <c r="M45" t="n">
-        <v>488.1091505729034</v>
+        <v>485.1417330183085</v>
       </c>
       <c r="N45" t="n">
         <v>516.8936174628016</v>
